--- a/api_tests/data/data.xlsx
+++ b/api_tests/data/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12080"/>
+    <workbookView windowWidth="21000" windowHeight="7860" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="60">
   <si>
     <t>anchor_level</t>
   </si>
@@ -129,6 +129,1178 @@
   <si>
     <t>7天内累计PK胜利次数（单位：次）</t>
   </si>
+  <si>
+    <t>主播阶段</t>
+  </si>
+  <si>
+    <t>参数1</t>
+  </si>
+  <si>
+    <t>参数2</t>
+  </si>
+  <si>
+    <t>参数3</t>
+  </si>
+  <si>
+    <t>参数4</t>
+  </si>
+  <si>
+    <t>参数5</t>
+  </si>
+  <si>
+    <t>参数6</t>
+  </si>
+  <si>
+    <t>参数7</t>
+  </si>
+  <si>
+    <t>参数8</t>
+  </si>
+  <si>
+    <t>参数9</t>
+  </si>
+  <si>
+    <t>参数10</t>
+  </si>
+  <si>
+    <t>周任务</t>
+  </si>
+  <si>
+    <t>日任务</t>
+  </si>
+  <si>
+    <t>对应健康度</t>
+  </si>
+  <si>
+    <t>90&amp;99</t>
+  </si>
+  <si>
+    <r>
+      <t>阶段1：新手主播首次开播到建立基础观众群体无收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>以下4项均满足：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天日均ACU &lt; 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近1天粉丝数 &lt; 3k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7天累计被看播时长 &lt; 20min</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近30天累计收入 =0</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>阶段2: 在阶段2基础上降低要求，有收入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">以下5项满足其1: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天日均ACU [1, 2)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近1天粉丝数 &gt; [3k, 10k)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7天累计被看播时长/min [20, +∞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近30日累计收入(钻石数) [1,3000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天累计收入(钻石数) [1,1000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>阶段3: 在原阶段2基础上提高要求，有效收入</t>
+  </si>
+  <si>
+    <r>
+      <t>以下4项满足其1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天日均ACU [2, 3)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近1天粉丝数 [5k, 10k)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">最近30日累计收入(钻石数) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>US [3000,20000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JP [3000,20000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Else [3000，7500)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天累计收入(钻石数)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>US [1000,5000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JP [1000,5000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Else [1000，2000)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>阶段4: 在原阶段2基础上提高要求，meaningful收入的50%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>以下4项满足其1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天日均ACU [3, 5)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近1天粉丝数 [10k, 15k)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近30日累计收入(钻石数)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>US [20000,40000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JP [20000,40000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Else [7500，15000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天累计收入(钻石数)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>US [5000,10000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JP [5000,10000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Else [2000，4000)</t>
+    </r>
+  </si>
+  <si>
+    <t>阶段5: 对应原阶段3，meaningful收入</t>
+  </si>
+  <si>
+    <r>
+      <t>以下4项满足其1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天日均ACU [5, 30)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近1天粉丝数 [15000, 35000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近30日累计收入(钻石数)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>US [40000,600000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JP [40000,200000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Else [15000，150000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天累计收入(钻石数)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>US [10000,150000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JP [10000,50000)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Else [4000，40000)</t>
+    </r>
+  </si>
+  <si>
+    <t>阶段6: 原阶段4，showcase收入</t>
+  </si>
+  <si>
+    <r>
+      <t>以下4项满足其1:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天日均ACU [30, +∞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近1天粉丝数 [35000, +∞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近30日累计收入(钻石数)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>US [600000, +∞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JP [200000, +∞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Else [150000, +∞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最近7天累计收入(钻石数)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>US [150000, +∞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JP [50000, +∞)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Else [40000, +∞)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -140,9 +1312,23 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="26">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -324,6 +1510,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFE1EAFF"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -331,12 +1523,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -527,12 +1713,42 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1F2329"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1F2329"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1F2329"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1F2329"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFDEE0E3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,21 +1763,6 @@
       </top>
       <bottom style="medium">
         <color rgb="FFDEE0E3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF1F2329"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF1F2329"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF1F2329"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF1F2329"/>
       </bottom>
       <diagonal/>
     </border>
@@ -698,186 +1899,207 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1193,4071 +2415,4071 @@
   <sheetPr/>
   <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="12" max="12" width="18.5840707964602" customWidth="1"/>
-    <col min="13" max="13" width="46.3185840707965" customWidth="1"/>
+    <col min="12" max="12" width="18.5833333333333" customWidth="1"/>
+    <col min="13" max="13" width="46.3148148148148" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.05" spans="1:13">
-      <c r="A1" s="1" t="s">
+    <row r="1" ht="16.35" spans="1:13">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="15.05" spans="1:13">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" ht="15.15" spans="1:13">
+      <c r="A2" s="9">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10">
         <v>10</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="10">
         <v>20</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="10">
         <v>35</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="10">
         <v>50</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="10">
         <v>80</v>
       </c>
-      <c r="I2" s="3">
+      <c r="I2" s="10">
         <v>130</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="13">
         <v>220</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="13">
         <v>320</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="13">
         <v>600</v>
       </c>
-      <c r="M2" s="6">
+      <c r="M2" s="13">
         <v>900</v>
       </c>
     </row>
-    <row r="3" ht="15.05" spans="1:13">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" ht="15.15" spans="1:13">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="3">
-        <v>1</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="6">
-        <v>1</v>
-      </c>
-      <c r="K3" s="6">
+      <c r="C3" s="10"/>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+      <c r="I3" s="10">
+        <v>1</v>
+      </c>
+      <c r="J3" s="13">
+        <v>1</v>
+      </c>
+      <c r="K3" s="13">
         <v>3</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="13">
         <v>4</v>
       </c>
-      <c r="M3" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" ht="15.05" spans="1:13">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="M3" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:13">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3">
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
+        <v>5</v>
+      </c>
+      <c r="E4" s="10">
+        <v>5</v>
+      </c>
+      <c r="F4" s="10">
         <v>30</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="10">
         <v>100</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="10">
         <v>280</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="10">
         <v>830</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="21">
         <v>3600</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="21">
         <v>12000</v>
       </c>
-      <c r="L4" s="14">
+      <c r="L4" s="21">
         <v>24000</v>
       </c>
-      <c r="M4" s="14">
+      <c r="M4" s="21">
         <v>48000</v>
       </c>
     </row>
-    <row r="5" ht="15.05" spans="1:13">
-      <c r="A5" s="2">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" ht="15.15" spans="1:13">
+      <c r="A5" s="9">
+        <v>1</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3">
-        <v>1</v>
-      </c>
-      <c r="E5" s="3">
-        <v>1</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-      <c r="H5" s="3">
-        <v>5</v>
-      </c>
-      <c r="I5" s="11">
+      <c r="C5" s="10"/>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>5</v>
+      </c>
+      <c r="I5" s="18">
         <v>15</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="13">
         <v>65</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="13">
         <v>259</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="13">
         <v>550</v>
       </c>
-      <c r="M5" s="14">
+      <c r="M5" s="21">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" ht="15.15" spans="1:13">
+      <c r="A6" s="11">
+        <v>1</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5</v>
-      </c>
-      <c r="F6" s="3">
+      <c r="C6" s="10"/>
+      <c r="D6" s="10">
+        <v>2</v>
+      </c>
+      <c r="E6" s="10">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
         <v>10</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="10">
         <v>25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="10">
         <v>50</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="10">
         <v>120</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="13">
         <v>400</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="21">
         <v>1200</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="21">
         <v>2000</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="21">
         <v>7000</v>
       </c>
     </row>
-    <row r="7" ht="15.05" spans="1:13">
-      <c r="A7" s="2">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" ht="15.15" spans="1:13">
+      <c r="A7" s="9">
+        <v>1</v>
+      </c>
+      <c r="B7" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3">
-        <v>1</v>
-      </c>
-      <c r="E7" s="3">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3">
-        <v>1</v>
-      </c>
-      <c r="H7" s="3">
-        <v>1</v>
-      </c>
-      <c r="I7" s="3">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>2</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="C7" s="10"/>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+      <c r="I7" s="10">
+        <v>1</v>
+      </c>
+      <c r="J7" s="13">
+        <v>2</v>
+      </c>
+      <c r="K7" s="13">
         <v>4</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="13">
         <v>7</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="13">
         <v>26</v>
       </c>
     </row>
-    <row r="8" ht="15.05" spans="1:13">
-      <c r="A8" s="2">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" ht="15.15" spans="1:13">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3">
-        <v>1</v>
-      </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
-      <c r="F8" s="3">
-        <v>2</v>
-      </c>
-      <c r="G8" s="3">
-        <v>2</v>
-      </c>
-      <c r="H8" s="3">
-        <v>2</v>
-      </c>
-      <c r="I8" s="3">
-        <v>2</v>
-      </c>
-      <c r="J8" s="9">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>2</v>
+      </c>
+      <c r="G8" s="10">
+        <v>2</v>
+      </c>
+      <c r="H8" s="10">
+        <v>2</v>
+      </c>
+      <c r="I8" s="10">
+        <v>2</v>
+      </c>
+      <c r="J8" s="16">
         <v>10</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="16">
         <v>40</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="16">
         <v>100</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="13">
         <v>770</v>
       </c>
     </row>
-    <row r="9" ht="15.05" spans="1:13">
-      <c r="A9" s="2">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" ht="15.15" spans="1:13">
+      <c r="A9" s="9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1</v>
-      </c>
-      <c r="I9" s="3">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
+      <c r="C9" s="10"/>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="13">
+        <v>1</v>
+      </c>
+      <c r="K9" s="13">
         <v>3</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="13">
         <v>6</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="10" ht="15.05" spans="1:13">
-      <c r="A10" s="5">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" ht="15.15" spans="1:13">
+      <c r="A10" s="12">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="6">
-        <v>2</v>
-      </c>
-      <c r="E10" s="3">
-        <v>2</v>
-      </c>
-      <c r="F10" s="6">
-        <v>2</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="6">
-        <v>2</v>
-      </c>
-      <c r="I10" s="3">
-        <v>2</v>
-      </c>
-      <c r="J10" s="12">
-        <v>2</v>
-      </c>
-      <c r="K10" s="6">
-        <v>5</v>
-      </c>
-      <c r="L10" s="6">
+      <c r="C10" s="10"/>
+      <c r="D10" s="13">
+        <v>2</v>
+      </c>
+      <c r="E10" s="10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="13">
+        <v>2</v>
+      </c>
+      <c r="G10" s="10">
+        <v>2</v>
+      </c>
+      <c r="H10" s="13">
+        <v>2</v>
+      </c>
+      <c r="I10" s="10">
+        <v>2</v>
+      </c>
+      <c r="J10" s="19">
+        <v>2</v>
+      </c>
+      <c r="K10" s="13">
+        <v>5</v>
+      </c>
+      <c r="L10" s="13">
         <v>20</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="11" ht="15.05" spans="1:13">
-      <c r="A11" s="6">
-        <v>1</v>
-      </c>
-      <c r="B11" s="7" t="s">
+    <row r="11" ht="15.15" spans="1:13">
+      <c r="A11" s="13">
+        <v>1</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="8"/>
-      <c r="D11" s="9">
-        <v>5</v>
-      </c>
-      <c r="E11" s="9">
+      <c r="C11" s="15"/>
+      <c r="D11" s="16">
+        <v>5</v>
+      </c>
+      <c r="E11" s="16">
         <v>20</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="16">
         <v>30</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="13">
         <v>40</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="13">
         <v>60</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="13">
         <v>85</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="13">
         <v>150</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="13">
         <v>220</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="13">
         <v>300</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="12" ht="15.05" spans="1:13">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="7" t="s">
+    <row r="12" ht="15.15" spans="1:13">
+      <c r="A12" s="13">
+        <v>1</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6">
-        <v>2</v>
-      </c>
-      <c r="E12" s="6">
+      <c r="C12" s="15"/>
+      <c r="D12" s="13">
+        <v>2</v>
+      </c>
+      <c r="E12" s="13">
         <v>3</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="13">
         <v>6</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="16">
         <v>15</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="16">
         <v>25</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="13">
         <v>60</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="13">
         <v>180</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="13">
         <v>430</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="13">
         <v>700</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="13">
         <v>2550</v>
       </c>
     </row>
-    <row r="13" ht="15.05" spans="1:13">
-      <c r="A13" s="6">
-        <v>1</v>
-      </c>
-      <c r="B13" s="7" t="s">
+    <row r="13" ht="15.15" spans="1:13">
+      <c r="A13" s="13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="6">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="C13" s="15"/>
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>1</v>
+      </c>
+      <c r="F13" s="13">
         <v>3</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="13">
         <v>10</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="13">
         <v>60</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="13">
         <v>320</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="21">
         <v>1600</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="21">
         <v>5800</v>
       </c>
-      <c r="L13" s="14">
+      <c r="L13" s="21">
         <v>9000</v>
       </c>
-      <c r="M13" s="14">
+      <c r="M13" s="21">
         <v>30000</v>
       </c>
     </row>
-    <row r="14" ht="15.05" spans="1:13">
-      <c r="A14" s="6">
-        <v>1</v>
-      </c>
-      <c r="B14" s="7" t="s">
+    <row r="14" ht="15.15" spans="1:13">
+      <c r="A14" s="13">
+        <v>1</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="8"/>
-      <c r="D14" s="6">
-        <v>2</v>
-      </c>
-      <c r="E14" s="6">
-        <v>2</v>
-      </c>
-      <c r="F14" s="6">
-        <v>2</v>
-      </c>
-      <c r="G14" s="6">
-        <v>5</v>
-      </c>
-      <c r="H14" s="6">
-        <v>5</v>
-      </c>
-      <c r="I14" s="6">
-        <v>5</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="C14" s="15"/>
+      <c r="D14" s="13">
+        <v>2</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2</v>
+      </c>
+      <c r="F14" s="13">
+        <v>2</v>
+      </c>
+      <c r="G14" s="13">
+        <v>5</v>
+      </c>
+      <c r="H14" s="13">
+        <v>5</v>
+      </c>
+      <c r="I14" s="13">
+        <v>5</v>
+      </c>
+      <c r="J14" s="13">
         <v>30</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="13">
         <v>100</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="13">
         <v>200</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="13">
         <v>630</v>
       </c>
     </row>
-    <row r="15" ht="15.05" spans="1:13">
-      <c r="A15" s="6">
-        <v>1</v>
-      </c>
-      <c r="B15" s="7" t="s">
+    <row r="15" ht="15.15" spans="1:13">
+      <c r="A15" s="13">
+        <v>1</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="8"/>
-      <c r="D15" s="6">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
+      <c r="C15" s="15"/>
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13">
+        <v>1</v>
+      </c>
+      <c r="F15" s="13">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13">
+        <v>1</v>
+      </c>
+      <c r="H15" s="13">
+        <v>1</v>
+      </c>
+      <c r="I15" s="13">
         <v>3</v>
       </c>
-      <c r="J15" s="6">
-        <v>5</v>
-      </c>
-      <c r="K15" s="6">
+      <c r="J15" s="13">
+        <v>5</v>
+      </c>
+      <c r="K15" s="13">
         <v>10</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="13">
         <v>20</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="16" ht="15.05" spans="1:13">
-      <c r="A16" s="2">
-        <v>2</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" ht="15.15" spans="1:13">
+      <c r="A16" s="9">
+        <v>2</v>
+      </c>
+      <c r="B16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3">
+      <c r="C16" s="10"/>
+      <c r="D16" s="10">
         <v>20</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="10">
         <v>40</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="10">
         <v>60</v>
       </c>
-      <c r="G16" s="3">
+      <c r="G16" s="10">
         <v>100</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="10">
         <v>160</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="10">
         <v>250</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="19">
         <v>400</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="13">
         <v>560</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="13">
         <v>1000</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="13">
         <v>1400</v>
       </c>
     </row>
-    <row r="17" ht="15.05" spans="1:13">
-      <c r="A17" s="2">
-        <v>2</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" ht="15.15" spans="1:13">
+      <c r="A17" s="9">
+        <v>2</v>
+      </c>
+      <c r="B17" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3">
-        <v>1</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1</v>
-      </c>
-      <c r="G17" s="3">
-        <v>1</v>
-      </c>
-      <c r="H17" s="3">
-        <v>1</v>
-      </c>
-      <c r="I17" s="3">
-        <v>2</v>
-      </c>
-      <c r="J17" s="12">
-        <v>2</v>
-      </c>
-      <c r="K17" s="6">
+      <c r="C17" s="10"/>
+      <c r="D17" s="10">
+        <v>1</v>
+      </c>
+      <c r="E17" s="10">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10">
+        <v>2</v>
+      </c>
+      <c r="J17" s="19">
+        <v>2</v>
+      </c>
+      <c r="K17" s="13">
         <v>4</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="13">
         <v>6</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="18" ht="15.05" spans="1:13">
-      <c r="A18" s="2">
-        <v>2</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" ht="15.15" spans="1:13">
+      <c r="A18" s="9">
+        <v>2</v>
+      </c>
+      <c r="B18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3">
-        <v>5</v>
-      </c>
-      <c r="E18" s="3">
+      <c r="C18" s="10"/>
+      <c r="D18" s="10">
+        <v>5</v>
+      </c>
+      <c r="E18" s="10">
         <v>130</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="10">
         <v>450</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="17">
         <v>1000</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="17">
         <v>2000</v>
       </c>
-      <c r="I18" s="10">
+      <c r="I18" s="17">
         <v>3700</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="20">
         <v>13000</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="21">
         <v>36000</v>
       </c>
-      <c r="L18" s="14">
+      <c r="L18" s="21">
         <v>70000</v>
       </c>
-      <c r="M18" s="14">
+      <c r="M18" s="21">
         <v>136000</v>
       </c>
     </row>
-    <row r="19" ht="15.05" spans="1:13">
-      <c r="A19" s="2">
-        <v>2</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" ht="15.15" spans="1:13">
+      <c r="A19" s="9">
+        <v>2</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="3">
-        <v>2</v>
-      </c>
-      <c r="F19" s="3">
+      <c r="C19" s="10"/>
+      <c r="D19" s="10">
+        <v>1</v>
+      </c>
+      <c r="E19" s="10">
+        <v>2</v>
+      </c>
+      <c r="F19" s="10">
         <v>3</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="18">
         <v>15</v>
       </c>
-      <c r="H19" s="11">
+      <c r="H19" s="18">
         <v>50</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="18">
         <v>100</v>
       </c>
-      <c r="J19" s="12">
+      <c r="J19" s="19">
         <v>380</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="13">
         <v>1100</v>
       </c>
-      <c r="L19" s="14">
+      <c r="L19" s="21">
         <v>2000</v>
       </c>
-      <c r="M19" s="14">
+      <c r="M19" s="21">
         <v>6300</v>
       </c>
     </row>
-    <row r="20" ht="15.05" spans="1:13">
-      <c r="A20" s="4">
-        <v>2</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" ht="15.15" spans="1:13">
+      <c r="A20" s="11">
+        <v>2</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3">
+      <c r="C20" s="10"/>
+      <c r="D20" s="10">
         <v>10</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="10">
         <v>30</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="10">
         <v>60</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G20" s="10">
         <v>120</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="10">
         <v>220</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="10">
         <v>400</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="20">
         <v>1200</v>
       </c>
-      <c r="K20" s="14">
+      <c r="K20" s="21">
         <v>3300</v>
       </c>
-      <c r="L20" s="14">
+      <c r="L20" s="21">
         <v>5600</v>
       </c>
-      <c r="M20" s="14">
+      <c r="M20" s="21">
         <v>19000</v>
       </c>
     </row>
-    <row r="21" ht="15.05" spans="1:13">
-      <c r="A21" s="2">
-        <v>2</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" ht="15.15" spans="1:13">
+      <c r="A21" s="9">
+        <v>2</v>
+      </c>
+      <c r="B21" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="12">
-        <v>1</v>
-      </c>
-      <c r="E21" s="12">
-        <v>1</v>
-      </c>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12">
-        <v>1</v>
-      </c>
-      <c r="H21" s="12">
-        <v>1</v>
-      </c>
-      <c r="I21" s="12">
-        <v>2</v>
-      </c>
-      <c r="J21" s="12">
+      <c r="C21" s="10"/>
+      <c r="D21" s="19">
+        <v>1</v>
+      </c>
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+      <c r="F21" s="19">
+        <v>1</v>
+      </c>
+      <c r="G21" s="19">
+        <v>1</v>
+      </c>
+      <c r="H21" s="19">
+        <v>1</v>
+      </c>
+      <c r="I21" s="19">
+        <v>2</v>
+      </c>
+      <c r="J21" s="19">
         <v>4</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="13">
         <v>8</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="13">
         <v>14</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21" s="13">
         <v>59</v>
       </c>
     </row>
-    <row r="22" ht="15.05" spans="1:13">
-      <c r="A22" s="2">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="22" ht="15.15" spans="1:13">
+      <c r="A22" s="9">
+        <v>2</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="3">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3">
-        <v>2</v>
-      </c>
-      <c r="G22" s="3">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3">
-        <v>2</v>
-      </c>
-      <c r="I22" s="3">
-        <v>5</v>
-      </c>
-      <c r="J22" s="9">
+      <c r="C22" s="10"/>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>2</v>
+      </c>
+      <c r="G22" s="10">
+        <v>2</v>
+      </c>
+      <c r="H22" s="10">
+        <v>2</v>
+      </c>
+      <c r="I22" s="10">
+        <v>5</v>
+      </c>
+      <c r="J22" s="16">
         <v>20</v>
       </c>
-      <c r="K22" s="9">
+      <c r="K22" s="16">
         <v>80</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22" s="13">
         <v>200</v>
       </c>
-      <c r="M22" s="14">
+      <c r="M22" s="21">
         <v>1080</v>
       </c>
     </row>
-    <row r="23" ht="15.05" spans="1:13">
-      <c r="A23" s="2">
-        <v>2</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" ht="15.15" spans="1:13">
+      <c r="A23" s="9">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3">
-        <v>1</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-      <c r="F23" s="3">
-        <v>1</v>
-      </c>
-      <c r="G23" s="3">
-        <v>1</v>
-      </c>
-      <c r="H23" s="3">
-        <v>1</v>
-      </c>
-      <c r="I23" s="3">
-        <v>1</v>
-      </c>
-      <c r="J23" s="12">
-        <v>2</v>
-      </c>
-      <c r="K23" s="6">
-        <v>5</v>
-      </c>
-      <c r="L23" s="6">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+      <c r="G23" s="10">
+        <v>1</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10">
+        <v>1</v>
+      </c>
+      <c r="J23" s="19">
+        <v>2</v>
+      </c>
+      <c r="K23" s="13">
+        <v>5</v>
+      </c>
+      <c r="L23" s="13">
         <v>7</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="24" ht="15.05" spans="1:13">
-      <c r="A24" s="2">
-        <v>2</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="24" ht="15.15" spans="1:13">
+      <c r="A24" s="9">
+        <v>2</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="3">
-        <v>1</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1</v>
-      </c>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
-      <c r="H24" s="12">
+      <c r="C24" s="10"/>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="19">
+        <v>1</v>
+      </c>
+      <c r="G24" s="19">
+        <v>1</v>
+      </c>
+      <c r="H24" s="19">
         <v>3</v>
       </c>
-      <c r="I24" s="9">
-        <v>5</v>
-      </c>
-      <c r="J24" s="12">
+      <c r="I24" s="16">
+        <v>5</v>
+      </c>
+      <c r="J24" s="19">
         <v>50</v>
       </c>
-      <c r="K24" s="6">
+      <c r="K24" s="13">
         <v>250</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24" s="13">
         <v>600</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="21">
         <v>3300</v>
       </c>
     </row>
-    <row r="25" ht="15.05" spans="1:13">
-      <c r="A25" s="5">
-        <v>2</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" ht="15.15" spans="1:13">
+      <c r="A25" s="12">
+        <v>2</v>
+      </c>
+      <c r="B25" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="6">
-        <v>2</v>
-      </c>
-      <c r="E25" s="3">
-        <v>2</v>
-      </c>
-      <c r="F25" s="6">
-        <v>2</v>
-      </c>
-      <c r="G25" s="3">
-        <v>2</v>
-      </c>
-      <c r="H25" s="6">
-        <v>2</v>
-      </c>
-      <c r="I25" s="3">
-        <v>2</v>
-      </c>
-      <c r="J25" s="12">
-        <v>2</v>
-      </c>
-      <c r="K25" s="6">
-        <v>5</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="C25" s="10"/>
+      <c r="D25" s="13">
+        <v>2</v>
+      </c>
+      <c r="E25" s="10">
+        <v>2</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2</v>
+      </c>
+      <c r="G25" s="10">
+        <v>2</v>
+      </c>
+      <c r="H25" s="13">
+        <v>2</v>
+      </c>
+      <c r="I25" s="10">
+        <v>2</v>
+      </c>
+      <c r="J25" s="19">
+        <v>2</v>
+      </c>
+      <c r="K25" s="13">
+        <v>5</v>
+      </c>
+      <c r="L25" s="13">
         <v>20</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="13">
         <v>30</v>
       </c>
     </row>
-    <row r="26" ht="15.05" spans="1:13">
-      <c r="A26" s="6">
-        <v>2</v>
-      </c>
-      <c r="B26" s="7" t="s">
+    <row r="26" ht="15.15" spans="1:13">
+      <c r="A26" s="13">
+        <v>2</v>
+      </c>
+      <c r="B26" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="6">
-        <v>5</v>
-      </c>
-      <c r="E26" s="6">
+      <c r="C26" s="15"/>
+      <c r="D26" s="13">
+        <v>5</v>
+      </c>
+      <c r="E26" s="13">
         <v>12</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26" s="13">
         <v>25</v>
       </c>
-      <c r="G26" s="6">
+      <c r="G26" s="13">
         <v>55</v>
       </c>
-      <c r="H26" s="6">
+      <c r="H26" s="13">
         <v>95</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="13">
         <v>170</v>
       </c>
-      <c r="J26" s="6">
+      <c r="J26" s="13">
         <v>460</v>
       </c>
-      <c r="K26" s="14">
+      <c r="K26" s="21">
         <v>1000</v>
       </c>
-      <c r="L26" s="14">
+      <c r="L26" s="21">
         <v>1750</v>
       </c>
-      <c r="M26" s="14">
+      <c r="M26" s="21">
         <v>5900</v>
       </c>
     </row>
-    <row r="27" ht="15.05" spans="1:13">
-      <c r="A27" s="6">
-        <v>2</v>
-      </c>
-      <c r="B27" s="7" t="s">
+    <row r="27" ht="15.15" spans="1:13">
+      <c r="A27" s="13">
+        <v>2</v>
+      </c>
+      <c r="B27" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="6">
+      <c r="C27" s="15"/>
+      <c r="D27" s="13">
         <v>15</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="16">
         <v>30</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="13">
         <v>45</v>
       </c>
-      <c r="G27" s="6">
+      <c r="G27" s="13">
         <v>65</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27" s="13">
         <v>85</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="13">
         <v>115</v>
       </c>
-      <c r="J27" s="6">
+      <c r="J27" s="13">
         <v>180</v>
       </c>
-      <c r="K27" s="6">
+      <c r="K27" s="13">
         <v>280</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="13">
         <v>300</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="28" ht="15.05" spans="1:13">
-      <c r="A28" s="6">
-        <v>2</v>
-      </c>
-      <c r="B28" s="7" t="s">
+    <row r="28" ht="15.15" spans="1:13">
+      <c r="A28" s="13">
+        <v>2</v>
+      </c>
+      <c r="B28" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C28" s="8"/>
-      <c r="D28" s="6">
-        <v>1</v>
-      </c>
-      <c r="E28" s="6">
-        <v>1</v>
-      </c>
-      <c r="F28" s="6">
-        <v>1</v>
-      </c>
-      <c r="G28" s="6">
-        <v>1</v>
-      </c>
-      <c r="H28" s="6">
-        <v>2</v>
-      </c>
-      <c r="I28" s="6">
-        <v>5</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="C28" s="15"/>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13">
+        <v>1</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="13">
+        <v>1</v>
+      </c>
+      <c r="H28" s="13">
+        <v>2</v>
+      </c>
+      <c r="I28" s="13">
+        <v>5</v>
+      </c>
+      <c r="J28" s="13">
         <v>10</v>
       </c>
-      <c r="K28" s="6">
+      <c r="K28" s="13">
         <v>20</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="13">
         <v>40</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="13">
         <v>135</v>
       </c>
     </row>
-    <row r="29" ht="15.05" spans="1:13">
-      <c r="A29" s="6">
-        <v>2</v>
-      </c>
-      <c r="B29" s="7" t="s">
+    <row r="29" ht="15.15" spans="1:13">
+      <c r="A29" s="13">
+        <v>2</v>
+      </c>
+      <c r="B29" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="8"/>
-      <c r="D29" s="6">
-        <v>2</v>
-      </c>
-      <c r="E29" s="6">
+      <c r="C29" s="15"/>
+      <c r="D29" s="13">
+        <v>2</v>
+      </c>
+      <c r="E29" s="13">
         <v>10</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="13">
         <v>50</v>
       </c>
-      <c r="G29" s="6">
+      <c r="G29" s="13">
         <v>250</v>
       </c>
-      <c r="H29" s="6">
+      <c r="H29" s="13">
         <v>550</v>
       </c>
-      <c r="I29" s="14">
+      <c r="I29" s="21">
         <v>1300</v>
       </c>
-      <c r="J29" s="14">
+      <c r="J29" s="21">
         <v>4200</v>
       </c>
-      <c r="K29" s="14">
+      <c r="K29" s="21">
         <v>12000</v>
       </c>
-      <c r="L29" s="14">
+      <c r="L29" s="21">
         <v>22000</v>
       </c>
-      <c r="M29" s="14">
+      <c r="M29" s="21">
         <v>70000</v>
       </c>
     </row>
-    <row r="30" ht="15.05" spans="1:13">
-      <c r="A30" s="6">
-        <v>2</v>
-      </c>
-      <c r="B30" s="7" t="s">
+    <row r="30" ht="15.15" spans="1:13">
+      <c r="A30" s="13">
+        <v>2</v>
+      </c>
+      <c r="B30" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="8"/>
-      <c r="D30" s="6">
-        <v>2</v>
-      </c>
-      <c r="E30" s="6">
-        <v>2</v>
-      </c>
-      <c r="F30" s="6">
-        <v>5</v>
-      </c>
-      <c r="G30" s="6">
+      <c r="C30" s="15"/>
+      <c r="D30" s="13">
+        <v>2</v>
+      </c>
+      <c r="E30" s="13">
+        <v>2</v>
+      </c>
+      <c r="F30" s="13">
+        <v>5</v>
+      </c>
+      <c r="G30" s="13">
         <v>10</v>
       </c>
-      <c r="H30" s="6">
+      <c r="H30" s="13">
         <v>20</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="13">
         <v>40</v>
       </c>
-      <c r="J30" s="6">
+      <c r="J30" s="13">
         <v>140</v>
       </c>
-      <c r="K30" s="6">
+      <c r="K30" s="13">
         <v>380</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="13">
         <v>650</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="13">
         <v>1600</v>
       </c>
     </row>
-    <row r="31" ht="15.05" spans="1:13">
-      <c r="A31" s="2">
+    <row r="31" ht="15.15" spans="1:13">
+      <c r="A31" s="9">
         <v>3</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10">
         <v>40</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="10">
         <v>80</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="10">
         <v>120</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="10">
         <v>180</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="10">
         <v>320</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="13">
         <v>450</v>
       </c>
-      <c r="J31" s="12">
+      <c r="J31" s="19">
         <v>650</v>
       </c>
-      <c r="K31" s="6">
+      <c r="K31" s="13">
         <v>920</v>
       </c>
-      <c r="L31" s="6">
+      <c r="L31" s="13">
         <v>1500</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="13">
         <v>2000</v>
       </c>
     </row>
-    <row r="32" ht="15.05" spans="1:13">
-      <c r="A32" s="2">
+    <row r="32" ht="15.15" spans="1:13">
+      <c r="A32" s="9">
         <v>3</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="3">
-        <v>1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>2</v>
-      </c>
-      <c r="H32" s="12">
-        <v>2</v>
-      </c>
-      <c r="I32" s="6">
+      <c r="C32" s="10"/>
+      <c r="D32" s="10">
+        <v>1</v>
+      </c>
+      <c r="E32" s="10">
+        <v>1</v>
+      </c>
+      <c r="F32" s="10">
+        <v>1</v>
+      </c>
+      <c r="G32" s="10">
+        <v>2</v>
+      </c>
+      <c r="H32" s="19">
+        <v>2</v>
+      </c>
+      <c r="I32" s="13">
         <v>3</v>
       </c>
-      <c r="J32" s="12">
+      <c r="J32" s="19">
         <v>3</v>
       </c>
-      <c r="K32" s="6">
-        <v>5</v>
-      </c>
-      <c r="L32" s="6">
+      <c r="K32" s="13">
+        <v>5</v>
+      </c>
+      <c r="L32" s="13">
         <v>6</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="33" ht="15.05" spans="1:13">
-      <c r="A33" s="2">
+    <row r="33" ht="15.15" spans="1:13">
+      <c r="A33" s="9">
         <v>3</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="12">
+      <c r="C33" s="10"/>
+      <c r="D33" s="19">
         <v>260</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E33" s="20">
         <v>1000</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F33" s="20">
         <v>2200</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="20">
         <v>3600</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="20">
         <v>6600</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="21">
         <v>12000</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="20">
         <v>39000</v>
       </c>
-      <c r="K33" s="14">
+      <c r="K33" s="21">
         <v>100000</v>
       </c>
-      <c r="L33" s="14">
+      <c r="L33" s="21">
         <v>182000</v>
       </c>
-      <c r="M33" s="14">
+      <c r="M33" s="21">
         <v>300000</v>
       </c>
     </row>
-    <row r="34" ht="15.05" spans="1:13">
-      <c r="A34" s="2">
+    <row r="34" ht="15.15" spans="1:13">
+      <c r="A34" s="9">
         <v>3</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="12">
+      <c r="C34" s="10"/>
+      <c r="D34" s="19">
         <v>8</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="16">
         <v>15</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="16">
         <v>30</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G34" s="19">
         <v>125</v>
       </c>
-      <c r="H34" s="12">
+      <c r="H34" s="19">
         <v>240</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="13">
         <v>430</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="20">
         <v>1400</v>
       </c>
-      <c r="K34" s="14">
+      <c r="K34" s="21">
         <v>3400</v>
       </c>
-      <c r="L34" s="14">
+      <c r="L34" s="21">
         <v>5700</v>
       </c>
-      <c r="M34" s="14">
+      <c r="M34" s="21">
         <v>14000</v>
       </c>
     </row>
-    <row r="35" ht="15.05" spans="1:13">
-      <c r="A35" s="4">
+    <row r="35" ht="15.15" spans="1:13">
+      <c r="A35" s="11">
         <v>3</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3">
+      <c r="C35" s="10"/>
+      <c r="D35" s="10">
         <v>45</v>
       </c>
-      <c r="E35" s="3">
+      <c r="E35" s="10">
         <v>120</v>
       </c>
-      <c r="F35" s="3">
+      <c r="F35" s="10">
         <v>250</v>
       </c>
-      <c r="G35" s="3">
+      <c r="G35" s="10">
         <v>450</v>
       </c>
-      <c r="H35" s="3">
+      <c r="H35" s="10">
         <v>750</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="21">
         <v>1400</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="20">
         <v>4000</v>
       </c>
-      <c r="K35" s="14">
+      <c r="K35" s="21">
         <v>10000</v>
       </c>
-      <c r="L35" s="14">
+      <c r="L35" s="21">
         <v>19000</v>
       </c>
-      <c r="M35" s="14">
+      <c r="M35" s="21">
         <v>64000</v>
       </c>
     </row>
-    <row r="36" ht="15.05" spans="1:13">
-      <c r="A36" s="2">
+    <row r="36" ht="15.15" spans="1:13">
+      <c r="A36" s="9">
         <v>3</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="12">
-        <v>1</v>
-      </c>
-      <c r="E36" s="3">
-        <v>1</v>
-      </c>
-      <c r="F36" s="3">
-        <v>1</v>
-      </c>
-      <c r="G36" s="3">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3">
+      <c r="C36" s="10"/>
+      <c r="D36" s="19">
+        <v>1</v>
+      </c>
+      <c r="E36" s="10">
+        <v>1</v>
+      </c>
+      <c r="F36" s="10">
+        <v>1</v>
+      </c>
+      <c r="G36" s="10">
+        <v>2</v>
+      </c>
+      <c r="H36" s="10">
         <v>4</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="13">
         <v>6</v>
       </c>
-      <c r="J36" s="12">
+      <c r="J36" s="19">
         <v>8</v>
       </c>
-      <c r="K36" s="6">
+      <c r="K36" s="13">
         <v>20</v>
       </c>
-      <c r="L36" s="6">
+      <c r="L36" s="13">
         <v>35</v>
       </c>
-      <c r="M36" s="6">
+      <c r="M36" s="13">
         <v>110</v>
       </c>
     </row>
-    <row r="37" ht="15.05" spans="1:13">
-      <c r="A37" s="2">
+    <row r="37" ht="15.15" spans="1:13">
+      <c r="A37" s="9">
         <v>3</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="3">
-        <v>2</v>
-      </c>
-      <c r="F37" s="3">
-        <v>5</v>
-      </c>
-      <c r="G37" s="3">
-        <v>5</v>
-      </c>
-      <c r="H37" s="3">
-        <v>5</v>
-      </c>
-      <c r="I37" s="9">
+      <c r="C37" s="10"/>
+      <c r="D37" s="10">
+        <v>2</v>
+      </c>
+      <c r="E37" s="10">
+        <v>2</v>
+      </c>
+      <c r="F37" s="10">
+        <v>5</v>
+      </c>
+      <c r="G37" s="10">
+        <v>5</v>
+      </c>
+      <c r="H37" s="10">
+        <v>5</v>
+      </c>
+      <c r="I37" s="16">
         <v>15</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="16">
         <v>55</v>
       </c>
-      <c r="K37" s="6">
+      <c r="K37" s="13">
         <v>200</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37" s="13">
         <v>455</v>
       </c>
-      <c r="M37" s="14">
+      <c r="M37" s="21">
         <v>2680</v>
       </c>
     </row>
-    <row r="38" ht="15.05" spans="1:13">
-      <c r="A38" s="2">
+    <row r="38" ht="15.15" spans="1:13">
+      <c r="A38" s="9">
         <v>3</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="3">
-        <v>1</v>
-      </c>
-      <c r="F38" s="3">
-        <v>1</v>
-      </c>
-      <c r="G38" s="3">
-        <v>1</v>
-      </c>
-      <c r="H38" s="3">
-        <v>1</v>
-      </c>
-      <c r="I38" s="6">
-        <v>1</v>
-      </c>
-      <c r="J38" s="12">
+      <c r="C38" s="10"/>
+      <c r="D38" s="10">
+        <v>1</v>
+      </c>
+      <c r="E38" s="10">
+        <v>1</v>
+      </c>
+      <c r="F38" s="10">
+        <v>1</v>
+      </c>
+      <c r="G38" s="10">
+        <v>1</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="13">
+        <v>1</v>
+      </c>
+      <c r="J38" s="19">
         <v>3</v>
       </c>
-      <c r="K38" s="6">
+      <c r="K38" s="13">
         <v>8</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38" s="13">
         <v>10</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="39" ht="15.05" spans="1:13">
-      <c r="A39" s="2">
+    <row r="39" ht="15.15" spans="1:13">
+      <c r="A39" s="9">
         <v>3</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="3">
-        <v>1</v>
-      </c>
-      <c r="F39" s="6">
-        <v>5</v>
-      </c>
-      <c r="G39" s="11">
+      <c r="C39" s="10"/>
+      <c r="D39" s="10">
+        <v>1</v>
+      </c>
+      <c r="E39" s="10">
+        <v>1</v>
+      </c>
+      <c r="F39" s="13">
+        <v>5</v>
+      </c>
+      <c r="G39" s="18">
         <v>15</v>
       </c>
-      <c r="H39" s="11">
+      <c r="H39" s="18">
         <v>50</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="13">
         <v>110</v>
       </c>
-      <c r="J39" s="12">
+      <c r="J39" s="19">
         <v>450</v>
       </c>
-      <c r="K39" s="14">
+      <c r="K39" s="21">
         <v>1420</v>
       </c>
-      <c r="L39" s="14">
+      <c r="L39" s="21">
         <v>2800</v>
       </c>
-      <c r="M39" s="14">
+      <c r="M39" s="21">
         <v>12000</v>
       </c>
     </row>
-    <row r="40" ht="15.05" spans="1:13">
-      <c r="A40" s="5">
+    <row r="40" ht="15.15" spans="1:13">
+      <c r="A40" s="12">
         <v>3</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="6">
-        <v>2</v>
-      </c>
-      <c r="E40" s="3">
-        <v>2</v>
-      </c>
-      <c r="F40" s="6">
-        <v>2</v>
-      </c>
-      <c r="G40" s="3">
-        <v>2</v>
-      </c>
-      <c r="H40" s="12">
-        <v>2</v>
-      </c>
-      <c r="I40" s="6">
-        <v>5</v>
-      </c>
-      <c r="J40" s="12">
+      <c r="C40" s="10"/>
+      <c r="D40" s="13">
+        <v>2</v>
+      </c>
+      <c r="E40" s="10">
+        <v>2</v>
+      </c>
+      <c r="F40" s="13">
+        <v>2</v>
+      </c>
+      <c r="G40" s="10">
+        <v>2</v>
+      </c>
+      <c r="H40" s="19">
+        <v>2</v>
+      </c>
+      <c r="I40" s="13">
+        <v>5</v>
+      </c>
+      <c r="J40" s="19">
         <v>15</v>
       </c>
-      <c r="K40" s="6">
+      <c r="K40" s="13">
         <v>30</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40" s="13">
         <v>60</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="41" ht="15.05" spans="1:13">
-      <c r="A41" s="6">
+    <row r="41" ht="15.15" spans="1:13">
+      <c r="A41" s="13">
         <v>3</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C41" s="8"/>
-      <c r="D41" s="6">
+      <c r="C41" s="15"/>
+      <c r="D41" s="13">
         <v>20</v>
       </c>
-      <c r="E41" s="6">
+      <c r="E41" s="13">
         <v>50</v>
       </c>
-      <c r="F41" s="6">
+      <c r="F41" s="13">
         <v>90</v>
       </c>
-      <c r="G41" s="6">
+      <c r="G41" s="13">
         <v>160</v>
       </c>
-      <c r="H41" s="6">
+      <c r="H41" s="13">
         <v>280</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="13">
         <v>450</v>
       </c>
-      <c r="J41" s="14">
+      <c r="J41" s="21">
         <v>1100</v>
       </c>
-      <c r="K41" s="14">
+      <c r="K41" s="21">
         <v>2500</v>
       </c>
-      <c r="L41" s="14">
+      <c r="L41" s="21">
         <v>4450</v>
       </c>
-      <c r="M41" s="14">
+      <c r="M41" s="21">
         <v>15000</v>
       </c>
     </row>
-    <row r="42" ht="15.05" spans="1:13">
-      <c r="A42" s="6">
+    <row r="42" ht="15.15" spans="1:13">
+      <c r="A42" s="13">
         <v>3</v>
       </c>
-      <c r="B42" s="7" t="s">
+      <c r="B42" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="8"/>
-      <c r="D42" s="6">
-        <v>1</v>
-      </c>
-      <c r="E42" s="6">
-        <v>1</v>
-      </c>
-      <c r="F42" s="6">
+      <c r="C42" s="15"/>
+      <c r="D42" s="13">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13">
+        <v>1</v>
+      </c>
+      <c r="F42" s="13">
         <v>3</v>
       </c>
-      <c r="G42" s="6">
+      <c r="G42" s="13">
         <v>3</v>
       </c>
-      <c r="H42" s="6">
-        <v>5</v>
-      </c>
-      <c r="I42" s="6">
+      <c r="H42" s="13">
+        <v>5</v>
+      </c>
+      <c r="I42" s="13">
         <v>10</v>
       </c>
-      <c r="J42" s="6">
+      <c r="J42" s="13">
         <v>80</v>
       </c>
-      <c r="K42" s="6">
+      <c r="K42" s="13">
         <v>300</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42" s="13">
         <v>700</v>
       </c>
-      <c r="M42" s="14">
+      <c r="M42" s="21">
         <v>2800</v>
       </c>
     </row>
-    <row r="43" ht="15.05" spans="1:13">
-      <c r="A43" s="6">
+    <row r="43" ht="15.15" spans="1:13">
+      <c r="A43" s="13">
         <v>3</v>
       </c>
-      <c r="B43" s="7" t="s">
+      <c r="B43" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="8"/>
-      <c r="D43" s="6">
+      <c r="C43" s="15"/>
+      <c r="D43" s="13">
         <v>25</v>
       </c>
-      <c r="E43" s="6">
+      <c r="E43" s="13">
         <v>45</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="13">
         <v>65</v>
       </c>
-      <c r="G43" s="6">
+      <c r="G43" s="13">
         <v>90</v>
       </c>
-      <c r="H43" s="6">
+      <c r="H43" s="13">
         <v>120</v>
       </c>
-      <c r="I43" s="6">
+      <c r="I43" s="13">
         <v>150</v>
       </c>
-      <c r="J43" s="6">
+      <c r="J43" s="13">
         <v>230</v>
       </c>
-      <c r="K43" s="6">
+      <c r="K43" s="13">
         <v>300</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43" s="13">
         <v>300</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="44" ht="15.05" spans="1:13">
-      <c r="A44" s="6">
+    <row r="44" ht="15.15" spans="1:13">
+      <c r="A44" s="13">
         <v>3</v>
       </c>
-      <c r="B44" s="7" t="s">
+      <c r="B44" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="8"/>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="6">
-        <v>1</v>
-      </c>
-      <c r="F44" s="6">
-        <v>1</v>
-      </c>
-      <c r="G44" s="6">
-        <v>2</v>
-      </c>
-      <c r="H44" s="6">
+      <c r="C44" s="15"/>
+      <c r="D44" s="13">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13">
+        <v>1</v>
+      </c>
+      <c r="F44" s="13">
+        <v>1</v>
+      </c>
+      <c r="G44" s="13">
+        <v>2</v>
+      </c>
+      <c r="H44" s="13">
         <v>3</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I44" s="13">
         <v>6</v>
       </c>
-      <c r="J44" s="6">
+      <c r="J44" s="13">
         <v>15</v>
       </c>
-      <c r="K44" s="6">
+      <c r="K44" s="13">
         <v>40</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44" s="13">
         <v>85</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44" s="13">
         <v>250</v>
       </c>
     </row>
-    <row r="45" ht="15.05" spans="1:13">
-      <c r="A45" s="6">
+    <row r="45" ht="15.15" spans="1:13">
+      <c r="A45" s="13">
         <v>3</v>
       </c>
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="6">
+      <c r="C45" s="15"/>
+      <c r="D45" s="13">
         <v>70</v>
       </c>
-      <c r="E45" s="6">
+      <c r="E45" s="13">
         <v>280</v>
       </c>
-      <c r="F45" s="6">
+      <c r="F45" s="13">
         <v>600</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="21">
         <v>1200</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="21">
         <v>2000</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="21">
         <v>3500</v>
       </c>
-      <c r="J45" s="14">
+      <c r="J45" s="21">
         <v>10000</v>
       </c>
-      <c r="K45" s="14">
+      <c r="K45" s="21">
         <v>26000</v>
       </c>
-      <c r="L45" s="14">
+      <c r="L45" s="21">
         <v>47000</v>
       </c>
-      <c r="M45" s="14">
+      <c r="M45" s="21">
         <v>145000</v>
       </c>
     </row>
-    <row r="46" ht="15.05" spans="1:13">
-      <c r="A46" s="6">
+    <row r="46" ht="15.15" spans="1:13">
+      <c r="A46" s="13">
         <v>3</v>
       </c>
-      <c r="B46" s="7" t="s">
+      <c r="B46" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="8"/>
-      <c r="D46" s="6">
-        <v>2</v>
-      </c>
-      <c r="E46" s="6">
+      <c r="C46" s="15"/>
+      <c r="D46" s="13">
+        <v>2</v>
+      </c>
+      <c r="E46" s="13">
         <v>10</v>
       </c>
-      <c r="F46" s="6">
+      <c r="F46" s="13">
         <v>20</v>
       </c>
-      <c r="G46" s="6">
+      <c r="G46" s="13">
         <v>40</v>
       </c>
-      <c r="H46" s="6">
+      <c r="H46" s="13">
         <v>70</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="13">
         <v>140</v>
       </c>
-      <c r="J46" s="6">
+      <c r="J46" s="13">
         <v>400</v>
       </c>
-      <c r="K46" s="6">
+      <c r="K46" s="13">
         <v>900</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46" s="13">
         <v>1400</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46" s="13">
         <v>3200</v>
       </c>
     </row>
-    <row r="47" ht="15.05" spans="1:13">
-      <c r="A47" s="2">
+    <row r="47" ht="15.15" spans="1:13">
+      <c r="A47" s="9">
         <v>4</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C47" s="3"/>
-      <c r="D47" s="12">
+      <c r="C47" s="10"/>
+      <c r="D47" s="19">
         <v>70</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="19">
         <v>130</v>
       </c>
-      <c r="F47" s="6">
+      <c r="F47" s="13">
         <v>200</v>
       </c>
-      <c r="G47" s="12">
+      <c r="G47" s="19">
         <v>320</v>
       </c>
-      <c r="H47" s="12">
+      <c r="H47" s="19">
         <v>500</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="13">
         <v>700</v>
       </c>
-      <c r="J47" s="12">
+      <c r="J47" s="19">
         <v>900</v>
       </c>
-      <c r="K47" s="6">
+      <c r="K47" s="13">
         <v>1200</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47" s="13">
         <v>1900</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47" s="13">
         <v>2100</v>
       </c>
     </row>
-    <row r="48" ht="15.05" spans="1:13">
-      <c r="A48" s="2">
+    <row r="48" ht="15.15" spans="1:13">
+      <c r="A48" s="9">
         <v>4</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3">
-        <v>1</v>
-      </c>
-      <c r="E48" s="3">
-        <v>1</v>
-      </c>
-      <c r="F48" s="6">
-        <v>1</v>
-      </c>
-      <c r="G48" s="3">
-        <v>2</v>
-      </c>
-      <c r="H48" s="12">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10">
+        <v>1</v>
+      </c>
+      <c r="E48" s="10">
+        <v>1</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1</v>
+      </c>
+      <c r="G48" s="10">
+        <v>2</v>
+      </c>
+      <c r="H48" s="19">
         <v>3</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="13">
         <v>4</v>
       </c>
-      <c r="J48" s="12">
+      <c r="J48" s="19">
         <v>4</v>
       </c>
-      <c r="K48" s="6">
+      <c r="K48" s="13">
         <v>6</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48" s="13">
         <v>6</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="49" ht="15.05" spans="1:13">
-      <c r="A49" s="2">
+    <row r="49" ht="15.15" spans="1:13">
+      <c r="A49" s="9">
         <v>4</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="14">
+      <c r="C49" s="10"/>
+      <c r="D49" s="21">
         <v>1600</v>
       </c>
-      <c r="E49" s="14">
+      <c r="E49" s="21">
         <v>3900</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="21">
         <v>6900</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="21">
         <v>12000</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="21">
         <v>25000</v>
       </c>
-      <c r="I49" s="14">
+      <c r="I49" s="21">
         <v>38000</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J49" s="21">
         <v>104000</v>
       </c>
-      <c r="K49" s="14">
+      <c r="K49" s="21">
         <v>256000</v>
       </c>
-      <c r="L49" s="14">
+      <c r="L49" s="21">
         <v>453000</v>
       </c>
-      <c r="M49" s="14">
+      <c r="M49" s="21">
         <v>800000</v>
       </c>
     </row>
-    <row r="50" ht="15.05" spans="1:13">
-      <c r="A50" s="2">
+    <row r="50" ht="15.15" spans="1:13">
+      <c r="A50" s="9">
         <v>4</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="9">
+      <c r="C50" s="10"/>
+      <c r="D50" s="16">
         <v>55</v>
       </c>
-      <c r="E50" s="6">
+      <c r="E50" s="13">
         <v>150</v>
       </c>
-      <c r="F50" s="6">
+      <c r="F50" s="13">
         <v>240</v>
       </c>
-      <c r="G50" s="6">
+      <c r="G50" s="13">
         <v>480</v>
       </c>
-      <c r="H50" s="6">
+      <c r="H50" s="13">
         <v>680</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="21">
         <v>1300</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J50" s="21">
         <v>3300</v>
       </c>
-      <c r="K50" s="14">
+      <c r="K50" s="21">
         <v>6900</v>
       </c>
-      <c r="L50" s="14">
+      <c r="L50" s="21">
         <v>10000</v>
       </c>
-      <c r="M50" s="14">
+      <c r="M50" s="21">
         <v>27000</v>
       </c>
     </row>
-    <row r="51" ht="15.05" spans="1:13">
-      <c r="A51" s="4">
+    <row r="51" ht="15.15" spans="1:13">
+      <c r="A51" s="11">
         <v>4</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="6">
+      <c r="C51" s="10"/>
+      <c r="D51" s="13">
         <v>200</v>
       </c>
-      <c r="E51" s="6">
+      <c r="E51" s="13">
         <v>450</v>
       </c>
-      <c r="F51" s="6">
+      <c r="F51" s="13">
         <v>750</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="21">
         <v>1400</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="21">
         <v>2400</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="21">
         <v>3600</v>
       </c>
-      <c r="J51" s="14">
+      <c r="J51" s="21">
         <v>9000</v>
       </c>
-      <c r="K51" s="14">
+      <c r="K51" s="21">
         <v>22000</v>
       </c>
-      <c r="L51" s="14">
+      <c r="L51" s="21">
         <v>40000</v>
       </c>
-      <c r="M51" s="14">
+      <c r="M51" s="21">
         <v>165000</v>
       </c>
     </row>
-    <row r="52" ht="15.05" spans="1:13">
-      <c r="A52" s="2">
+    <row r="52" ht="15.15" spans="1:13">
+      <c r="A52" s="9">
         <v>4</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="6">
-        <v>2</v>
-      </c>
-      <c r="E52" s="6">
-        <v>2</v>
-      </c>
-      <c r="F52" s="6">
+      <c r="C52" s="10"/>
+      <c r="D52" s="13">
+        <v>2</v>
+      </c>
+      <c r="E52" s="13">
+        <v>2</v>
+      </c>
+      <c r="F52" s="13">
         <v>3</v>
       </c>
-      <c r="G52" s="6">
+      <c r="G52" s="13">
         <v>4</v>
       </c>
-      <c r="H52" s="6">
+      <c r="H52" s="13">
         <v>7</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="13">
         <v>10</v>
       </c>
-      <c r="J52" s="6">
+      <c r="J52" s="13">
         <v>15</v>
       </c>
-      <c r="K52" s="6">
+      <c r="K52" s="13">
         <v>37</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52" s="13">
         <v>72</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52" s="13">
         <v>260</v>
       </c>
     </row>
-    <row r="53" ht="15.05" spans="1:13">
-      <c r="A53" s="2">
+    <row r="53" ht="15.15" spans="1:13">
+      <c r="A53" s="9">
         <v>4</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="6">
-        <v>2</v>
-      </c>
-      <c r="E53" s="6">
+      <c r="C53" s="10"/>
+      <c r="D53" s="13">
+        <v>2</v>
+      </c>
+      <c r="E53" s="13">
         <v>3</v>
       </c>
-      <c r="F53" s="6">
+      <c r="F53" s="13">
         <v>3</v>
       </c>
-      <c r="G53" s="6">
+      <c r="G53" s="13">
         <v>3</v>
       </c>
-      <c r="H53" s="6">
+      <c r="H53" s="13">
         <v>15</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="13">
         <v>30</v>
       </c>
-      <c r="J53" s="9">
+      <c r="J53" s="16">
         <v>115</v>
       </c>
-      <c r="K53" s="9">
+      <c r="K53" s="16">
         <v>430</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53" s="13">
         <v>945</v>
       </c>
-      <c r="M53" s="14">
+      <c r="M53" s="21">
         <v>5000</v>
       </c>
     </row>
-    <row r="54" ht="15.05" spans="1:13">
-      <c r="A54" s="2">
+    <row r="54" ht="15.15" spans="1:13">
+      <c r="A54" s="9">
         <v>4</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="6">
-        <v>1</v>
-      </c>
-      <c r="E54" s="6">
-        <v>1</v>
-      </c>
-      <c r="F54" s="6">
-        <v>1</v>
-      </c>
-      <c r="G54" s="6">
-        <v>2</v>
-      </c>
-      <c r="H54" s="6">
-        <v>2</v>
-      </c>
-      <c r="I54" s="6">
-        <v>2</v>
-      </c>
-      <c r="J54" s="6">
-        <v>5</v>
-      </c>
-      <c r="K54" s="6">
+      <c r="C54" s="10"/>
+      <c r="D54" s="13">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13">
+        <v>1</v>
+      </c>
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+      <c r="G54" s="13">
+        <v>2</v>
+      </c>
+      <c r="H54" s="13">
+        <v>2</v>
+      </c>
+      <c r="I54" s="13">
+        <v>2</v>
+      </c>
+      <c r="J54" s="13">
+        <v>5</v>
+      </c>
+      <c r="K54" s="13">
         <v>10</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54" s="13">
         <v>10</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M54" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="55" ht="15.05" spans="1:13">
-      <c r="A55" s="2">
+    <row r="55" ht="15.15" spans="1:13">
+      <c r="A55" s="9">
         <v>4</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="6">
-        <v>5</v>
-      </c>
-      <c r="E55" s="9">
+      <c r="C55" s="10"/>
+      <c r="D55" s="13">
+        <v>5</v>
+      </c>
+      <c r="E55" s="16">
         <v>35</v>
       </c>
-      <c r="F55" s="6">
+      <c r="F55" s="13">
         <v>120</v>
       </c>
-      <c r="G55" s="6">
+      <c r="G55" s="13">
         <v>270</v>
       </c>
-      <c r="H55" s="6">
+      <c r="H55" s="13">
         <v>650</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="21">
         <v>1200</v>
       </c>
-      <c r="J55" s="14">
+      <c r="J55" s="21">
         <v>3600</v>
       </c>
-      <c r="K55" s="14">
+      <c r="K55" s="21">
         <v>9860</v>
       </c>
-      <c r="L55" s="14">
+      <c r="L55" s="21">
         <v>18000</v>
       </c>
-      <c r="M55" s="14">
+      <c r="M55" s="21">
         <v>59000</v>
       </c>
     </row>
-    <row r="56" ht="15.05" spans="1:13">
-      <c r="A56" s="5">
+    <row r="56" ht="15.15" spans="1:13">
+      <c r="A56" s="12">
         <v>4</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="6">
-        <v>1</v>
-      </c>
-      <c r="E56" s="6">
-        <v>1</v>
-      </c>
-      <c r="F56" s="6">
-        <v>1</v>
-      </c>
-      <c r="G56" s="6">
-        <v>1</v>
-      </c>
-      <c r="H56" s="6">
-        <v>1</v>
-      </c>
-      <c r="I56" s="6">
-        <v>1</v>
-      </c>
-      <c r="J56" s="6">
-        <v>2</v>
-      </c>
-      <c r="K56" s="6">
-        <v>2</v>
-      </c>
-      <c r="L56" s="6">
+      <c r="C56" s="10"/>
+      <c r="D56" s="13">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13">
+        <v>1</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1</v>
+      </c>
+      <c r="H56" s="13">
+        <v>1</v>
+      </c>
+      <c r="I56" s="13">
+        <v>1</v>
+      </c>
+      <c r="J56" s="13">
+        <v>2</v>
+      </c>
+      <c r="K56" s="13">
+        <v>2</v>
+      </c>
+      <c r="L56" s="13">
         <v>3</v>
       </c>
-      <c r="M56" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="57" ht="15.05" spans="1:13">
-      <c r="A57" s="5">
+      <c r="M56" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" ht="15.15" spans="1:13">
+      <c r="A57" s="12">
         <v>4</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="6">
-        <v>2</v>
-      </c>
-      <c r="E57" s="3">
-        <v>2</v>
-      </c>
-      <c r="F57" s="6">
-        <v>2</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2</v>
-      </c>
-      <c r="H57" s="12">
-        <v>2</v>
-      </c>
-      <c r="I57" s="6">
-        <v>5</v>
-      </c>
-      <c r="J57" s="6">
+      <c r="C57" s="10"/>
+      <c r="D57" s="13">
+        <v>2</v>
+      </c>
+      <c r="E57" s="10">
+        <v>2</v>
+      </c>
+      <c r="F57" s="13">
+        <v>2</v>
+      </c>
+      <c r="G57" s="10">
+        <v>2</v>
+      </c>
+      <c r="H57" s="19">
+        <v>2</v>
+      </c>
+      <c r="I57" s="13">
+        <v>5</v>
+      </c>
+      <c r="J57" s="13">
         <v>15</v>
       </c>
-      <c r="K57" s="6">
+      <c r="K57" s="13">
         <v>30</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57" s="13">
         <v>60</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="58" ht="15.05" spans="1:13">
-      <c r="A58" s="6">
+    <row r="58" ht="15.15" spans="1:13">
+      <c r="A58" s="13">
         <v>4</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B58" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="8"/>
-      <c r="D58" s="6">
+      <c r="C58" s="15"/>
+      <c r="D58" s="13">
         <v>70</v>
       </c>
-      <c r="E58" s="6">
+      <c r="E58" s="13">
         <v>150</v>
       </c>
-      <c r="F58" s="6">
+      <c r="F58" s="13">
         <v>250</v>
       </c>
-      <c r="G58" s="6">
+      <c r="G58" s="13">
         <v>380</v>
       </c>
-      <c r="H58" s="6">
+      <c r="H58" s="13">
         <v>520</v>
       </c>
-      <c r="I58" s="6">
+      <c r="I58" s="13">
         <v>920</v>
       </c>
-      <c r="J58" s="14">
+      <c r="J58" s="21">
         <v>2100</v>
       </c>
-      <c r="K58" s="14">
+      <c r="K58" s="21">
         <v>5000</v>
       </c>
-      <c r="L58" s="14">
+      <c r="L58" s="21">
         <v>9350</v>
       </c>
-      <c r="M58" s="14">
+      <c r="M58" s="21">
         <v>33000</v>
       </c>
     </row>
-    <row r="59" ht="15.05" spans="1:13">
-      <c r="A59" s="6">
+    <row r="59" ht="15.15" spans="1:13">
+      <c r="A59" s="13">
         <v>4</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B59" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C59" s="8"/>
-      <c r="D59" s="6">
-        <v>1</v>
-      </c>
-      <c r="E59" s="6">
-        <v>5</v>
-      </c>
-      <c r="F59" s="6">
+      <c r="C59" s="15"/>
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13">
+        <v>5</v>
+      </c>
+      <c r="F59" s="13">
         <v>20</v>
       </c>
-      <c r="G59" s="6">
+      <c r="G59" s="13">
         <v>35</v>
       </c>
-      <c r="H59" s="6">
+      <c r="H59" s="13">
         <v>85</v>
       </c>
-      <c r="I59" s="6">
+      <c r="I59" s="13">
         <v>150</v>
       </c>
-      <c r="J59" s="6">
+      <c r="J59" s="13">
         <v>650</v>
       </c>
-      <c r="K59" s="14">
+      <c r="K59" s="21">
         <v>2100</v>
       </c>
-      <c r="L59" s="14">
+      <c r="L59" s="21">
         <v>4100</v>
       </c>
-      <c r="M59" s="14">
+      <c r="M59" s="21">
         <v>15000</v>
       </c>
     </row>
-    <row r="60" ht="15.05" spans="1:13">
-      <c r="A60" s="6">
+    <row r="60" ht="15.15" spans="1:13">
+      <c r="A60" s="13">
         <v>4</v>
       </c>
-      <c r="B60" s="7" t="s">
+      <c r="B60" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C60" s="8"/>
-      <c r="D60" s="6">
+      <c r="C60" s="15"/>
+      <c r="D60" s="13">
         <v>35</v>
       </c>
-      <c r="E60" s="6">
+      <c r="E60" s="13">
         <v>60</v>
       </c>
-      <c r="F60" s="6">
+      <c r="F60" s="13">
         <v>80</v>
       </c>
-      <c r="G60" s="6">
+      <c r="G60" s="13">
         <v>100</v>
       </c>
-      <c r="H60" s="6">
+      <c r="H60" s="13">
         <v>130</v>
       </c>
-      <c r="I60" s="6">
+      <c r="I60" s="13">
         <v>170</v>
       </c>
-      <c r="J60" s="6">
+      <c r="J60" s="13">
         <v>270</v>
       </c>
-      <c r="K60" s="6">
+      <c r="K60" s="13">
         <v>300</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60" s="13">
         <v>300</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="61" ht="15.05" spans="1:13">
-      <c r="A61" s="6">
+    <row r="61" ht="15.15" spans="1:13">
+      <c r="A61" s="13">
         <v>4</v>
       </c>
-      <c r="B61" s="15" t="s">
+      <c r="B61" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C61" s="16"/>
-      <c r="D61" s="6">
-        <v>1</v>
-      </c>
-      <c r="E61" s="6">
-        <v>1</v>
-      </c>
-      <c r="F61" s="6">
-        <v>1</v>
-      </c>
-      <c r="G61" s="6">
-        <v>1</v>
-      </c>
-      <c r="H61" s="6">
-        <v>1</v>
-      </c>
-      <c r="I61" s="6">
-        <v>1</v>
-      </c>
-      <c r="J61" s="6">
-        <v>1</v>
-      </c>
-      <c r="K61" s="6">
-        <v>2</v>
-      </c>
-      <c r="L61" s="6">
-        <v>2</v>
-      </c>
-      <c r="M61" s="6">
+      <c r="C61" s="23"/>
+      <c r="D61" s="13">
+        <v>1</v>
+      </c>
+      <c r="E61" s="13">
+        <v>1</v>
+      </c>
+      <c r="F61" s="13">
+        <v>1</v>
+      </c>
+      <c r="G61" s="13">
+        <v>1</v>
+      </c>
+      <c r="H61" s="13">
+        <v>1</v>
+      </c>
+      <c r="I61" s="13">
+        <v>1</v>
+      </c>
+      <c r="J61" s="13">
+        <v>1</v>
+      </c>
+      <c r="K61" s="13">
+        <v>2</v>
+      </c>
+      <c r="L61" s="13">
+        <v>2</v>
+      </c>
+      <c r="M61" s="13">
         <v>3</v>
       </c>
     </row>
-    <row r="62" ht="15.05" spans="1:13">
-      <c r="A62" s="6">
+    <row r="62" ht="15.15" spans="1:13">
+      <c r="A62" s="13">
         <v>4</v>
       </c>
-      <c r="B62" s="7" t="s">
+      <c r="B62" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="8"/>
-      <c r="D62" s="6">
-        <v>1</v>
-      </c>
-      <c r="E62" s="6">
-        <v>1</v>
-      </c>
-      <c r="F62" s="6">
-        <v>1</v>
-      </c>
-      <c r="G62" s="6">
-        <v>2</v>
-      </c>
-      <c r="H62" s="6">
+      <c r="C62" s="15"/>
+      <c r="D62" s="13">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13">
+        <v>1</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1</v>
+      </c>
+      <c r="G62" s="13">
+        <v>2</v>
+      </c>
+      <c r="H62" s="13">
         <v>6</v>
       </c>
-      <c r="I62" s="6">
+      <c r="I62" s="13">
         <v>12</v>
       </c>
-      <c r="J62" s="6">
+      <c r="J62" s="13">
         <v>25</v>
       </c>
-      <c r="K62" s="6">
+      <c r="K62" s="13">
         <v>80</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62" s="13">
         <v>170</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62" s="13">
         <v>460</v>
       </c>
     </row>
-    <row r="63" ht="15.05" spans="1:13">
-      <c r="A63" s="6">
+    <row r="63" ht="15.15" spans="1:13">
+      <c r="A63" s="13">
         <v>4</v>
       </c>
-      <c r="B63" s="7" t="s">
+      <c r="B63" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C63" s="8"/>
-      <c r="D63" s="6">
+      <c r="C63" s="15"/>
+      <c r="D63" s="13">
         <v>400</v>
       </c>
-      <c r="E63" s="6">
+      <c r="E63" s="13">
         <v>1000</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="21">
         <v>1800</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="21">
         <v>3000</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="21">
         <v>5000</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="21">
         <v>8700</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J63" s="21">
         <v>23000</v>
       </c>
-      <c r="K63" s="14">
+      <c r="K63" s="21">
         <v>58000</v>
       </c>
-      <c r="L63" s="14">
+      <c r="L63" s="21">
         <v>100000</v>
       </c>
-      <c r="M63" s="14">
+      <c r="M63" s="21">
         <v>299000</v>
       </c>
     </row>
-    <row r="64" ht="15.05" spans="1:13">
-      <c r="A64" s="6">
+    <row r="64" ht="15.15" spans="1:13">
+      <c r="A64" s="13">
         <v>4</v>
       </c>
-      <c r="B64" s="7" t="s">
+      <c r="B64" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C64" s="8"/>
-      <c r="D64" s="6">
+      <c r="C64" s="15"/>
+      <c r="D64" s="13">
         <v>15</v>
       </c>
-      <c r="E64" s="6">
+      <c r="E64" s="13">
         <v>40</v>
       </c>
-      <c r="F64" s="6">
+      <c r="F64" s="13">
         <v>80</v>
       </c>
-      <c r="G64" s="6">
+      <c r="G64" s="13">
         <v>120</v>
       </c>
-      <c r="H64" s="6">
+      <c r="H64" s="13">
         <v>180</v>
       </c>
-      <c r="I64" s="6">
+      <c r="I64" s="13">
         <v>340</v>
       </c>
-      <c r="J64" s="6">
+      <c r="J64" s="13">
         <v>800</v>
       </c>
-      <c r="K64" s="6">
+      <c r="K64" s="13">
         <v>1600</v>
       </c>
-      <c r="L64" s="6">
+      <c r="L64" s="13">
         <v>2400</v>
       </c>
-      <c r="M64" s="6">
+      <c r="M64" s="13">
         <v>5800</v>
       </c>
     </row>
-    <row r="65" ht="15.05" spans="1:13">
-      <c r="A65" s="2">
-        <v>5</v>
-      </c>
-      <c r="B65" s="3" t="s">
+    <row r="65" ht="15.15" spans="1:13">
+      <c r="A65" s="9">
+        <v>5</v>
+      </c>
+      <c r="B65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="6">
+      <c r="C65" s="10"/>
+      <c r="D65" s="13">
         <v>140</v>
       </c>
-      <c r="E65" s="6">
+      <c r="E65" s="13">
         <v>260</v>
       </c>
-      <c r="F65" s="6">
+      <c r="F65" s="13">
         <v>420</v>
       </c>
-      <c r="G65" s="6">
+      <c r="G65" s="13">
         <v>600</v>
       </c>
-      <c r="H65" s="6">
+      <c r="H65" s="13">
         <v>1200</v>
       </c>
-      <c r="I65" s="6">
+      <c r="I65" s="13">
         <v>1200</v>
       </c>
-      <c r="J65" s="6">
+      <c r="J65" s="13">
         <v>1500</v>
       </c>
-      <c r="K65" s="6">
+      <c r="K65" s="13">
         <v>1800</v>
       </c>
-      <c r="L65" s="6">
+      <c r="L65" s="13">
         <v>2100</v>
       </c>
-      <c r="M65" s="6">
+      <c r="M65" s="13">
         <v>2100</v>
       </c>
     </row>
-    <row r="66" ht="15.05" spans="1:13">
-      <c r="A66" s="2">
-        <v>5</v>
-      </c>
-      <c r="B66" s="3" t="s">
+    <row r="66" ht="15.15" spans="1:13">
+      <c r="A66" s="9">
+        <v>5</v>
+      </c>
+      <c r="B66" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3">
-        <v>1</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2</v>
-      </c>
-      <c r="F66" s="6">
+      <c r="C66" s="10"/>
+      <c r="D66" s="10">
+        <v>1</v>
+      </c>
+      <c r="E66" s="10">
+        <v>2</v>
+      </c>
+      <c r="F66" s="13">
         <v>3</v>
       </c>
-      <c r="G66" s="3">
+      <c r="G66" s="10">
         <v>4</v>
       </c>
-      <c r="H66" s="6">
+      <c r="H66" s="13">
         <v>4</v>
       </c>
-      <c r="I66" s="6">
-        <v>5</v>
-      </c>
-      <c r="J66" s="6">
-        <v>5</v>
-      </c>
-      <c r="K66" s="6">
+      <c r="I66" s="13">
+        <v>5</v>
+      </c>
+      <c r="J66" s="13">
+        <v>5</v>
+      </c>
+      <c r="K66" s="13">
         <v>6</v>
       </c>
-      <c r="L66" s="6">
+      <c r="L66" s="13">
         <v>6</v>
       </c>
-      <c r="M66" s="6">
+      <c r="M66" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="67" ht="15.05" spans="1:13">
-      <c r="A67" s="4">
-        <v>5</v>
-      </c>
-      <c r="B67" s="3" t="s">
+    <row r="67" ht="15.15" spans="1:13">
+      <c r="A67" s="11">
+        <v>5</v>
+      </c>
+      <c r="B67" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="14">
+      <c r="C67" s="10"/>
+      <c r="D67" s="21">
         <v>1000</v>
       </c>
-      <c r="E67" s="14">
+      <c r="E67" s="21">
         <v>2300</v>
       </c>
-      <c r="F67" s="14">
+      <c r="F67" s="21">
         <v>3500</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="21">
         <v>5700</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="21">
         <v>7800</v>
       </c>
-      <c r="I67" s="14">
+      <c r="I67" s="21">
         <v>13000</v>
       </c>
-      <c r="J67" s="14">
+      <c r="J67" s="21">
         <v>29000</v>
       </c>
-      <c r="K67" s="14">
+      <c r="K67" s="21">
         <v>72000</v>
       </c>
-      <c r="L67" s="14">
+      <c r="L67" s="21">
         <v>136000</v>
       </c>
-      <c r="M67" s="14">
+      <c r="M67" s="21">
         <v>510000</v>
       </c>
     </row>
-    <row r="68" ht="15.05" spans="1:13">
-      <c r="A68" s="2">
-        <v>5</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="68" ht="15.15" spans="1:13">
+      <c r="A68" s="9">
+        <v>5</v>
+      </c>
+      <c r="B68" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="6">
-        <v>1</v>
-      </c>
-      <c r="E68" s="6">
-        <v>1</v>
-      </c>
-      <c r="F68" s="6">
-        <v>2</v>
-      </c>
-      <c r="G68" s="6">
-        <v>2</v>
-      </c>
-      <c r="H68" s="6">
-        <v>2</v>
-      </c>
-      <c r="I68" s="6">
+      <c r="C68" s="10"/>
+      <c r="D68" s="13">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13">
+        <v>1</v>
+      </c>
+      <c r="F68" s="13">
+        <v>2</v>
+      </c>
+      <c r="G68" s="13">
+        <v>2</v>
+      </c>
+      <c r="H68" s="13">
+        <v>2</v>
+      </c>
+      <c r="I68" s="13">
         <v>3</v>
       </c>
-      <c r="J68" s="6">
+      <c r="J68" s="13">
         <v>7</v>
       </c>
-      <c r="K68" s="6">
+      <c r="K68" s="13">
         <v>10</v>
       </c>
-      <c r="L68" s="6">
+      <c r="L68" s="13">
         <v>10</v>
       </c>
-      <c r="M68" s="6">
+      <c r="M68" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="69" ht="15.05" spans="1:13">
-      <c r="A69" s="2">
-        <v>5</v>
-      </c>
-      <c r="B69" s="3" t="s">
+    <row r="69" ht="15.15" spans="1:13">
+      <c r="A69" s="9">
+        <v>5</v>
+      </c>
+      <c r="B69" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="14">
+      <c r="C69" s="10"/>
+      <c r="D69" s="21">
         <v>9800</v>
       </c>
-      <c r="E69" s="14">
+      <c r="E69" s="21">
         <v>22000</v>
       </c>
-      <c r="F69" s="14">
+      <c r="F69" s="21">
         <v>42000</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="21">
         <v>65000</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="21">
         <v>98000</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I69" s="21">
         <v>174000</v>
       </c>
-      <c r="J69" s="14">
+      <c r="J69" s="21">
         <v>453000</v>
       </c>
-      <c r="K69" s="14">
+      <c r="K69" s="21">
         <v>1000000</v>
       </c>
-      <c r="L69" s="14">
+      <c r="L69" s="21">
         <v>1700000</v>
       </c>
-      <c r="M69" s="14">
+      <c r="M69" s="21">
         <v>2500000</v>
       </c>
     </row>
-    <row r="70" ht="15.05" spans="1:13">
-      <c r="A70" s="2">
-        <v>5</v>
-      </c>
-      <c r="B70" s="3" t="s">
+    <row r="70" ht="15.15" spans="1:13">
+      <c r="A70" s="9">
+        <v>5</v>
+      </c>
+      <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="6">
+      <c r="C70" s="10"/>
+      <c r="D70" s="13">
         <v>360</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="16">
         <v>760</v>
       </c>
-      <c r="F70" s="14">
+      <c r="F70" s="21">
         <v>1200</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="21">
         <v>2000</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="21">
         <v>3200</v>
       </c>
-      <c r="I70" s="14">
+      <c r="I70" s="21">
         <v>4800</v>
       </c>
-      <c r="J70" s="14">
+      <c r="J70" s="21">
         <v>9700</v>
       </c>
-      <c r="K70" s="14">
+      <c r="K70" s="21">
         <v>18000</v>
       </c>
-      <c r="L70" s="14">
+      <c r="L70" s="21">
         <v>27000</v>
       </c>
-      <c r="M70" s="14">
+      <c r="M70" s="21">
         <v>71000</v>
       </c>
     </row>
-    <row r="71" ht="15.05" spans="1:13">
-      <c r="A71" s="2">
-        <v>5</v>
-      </c>
-      <c r="B71" s="3" t="s">
+    <row r="71" ht="15.15" spans="1:13">
+      <c r="A71" s="9">
+        <v>5</v>
+      </c>
+      <c r="B71" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="6">
+      <c r="C71" s="10"/>
+      <c r="D71" s="13">
         <v>4</v>
       </c>
-      <c r="E71" s="6">
-        <v>5</v>
-      </c>
-      <c r="F71" s="6">
-        <v>5</v>
-      </c>
-      <c r="G71" s="6">
+      <c r="E71" s="13">
+        <v>5</v>
+      </c>
+      <c r="F71" s="13">
+        <v>5</v>
+      </c>
+      <c r="G71" s="13">
         <v>8</v>
       </c>
-      <c r="H71" s="6">
+      <c r="H71" s="13">
         <v>14</v>
       </c>
-      <c r="I71" s="6">
+      <c r="I71" s="13">
         <v>20</v>
       </c>
-      <c r="J71" s="6">
+      <c r="J71" s="13">
         <v>33</v>
       </c>
-      <c r="K71" s="6">
+      <c r="K71" s="13">
         <v>82</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71" s="13">
         <v>154</v>
       </c>
-      <c r="M71" s="6">
+      <c r="M71" s="13">
         <v>500</v>
       </c>
     </row>
-    <row r="72" ht="15.05" spans="1:13">
-      <c r="A72" s="2">
-        <v>5</v>
-      </c>
-      <c r="B72" s="3" t="s">
+    <row r="72" ht="15.15" spans="1:13">
+      <c r="A72" s="9">
+        <v>5</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="6">
-        <v>5</v>
-      </c>
-      <c r="E72" s="6">
-        <v>5</v>
-      </c>
-      <c r="F72" s="6">
-        <v>5</v>
-      </c>
-      <c r="G72" s="6">
+      <c r="C72" s="10"/>
+      <c r="D72" s="13">
+        <v>5</v>
+      </c>
+      <c r="E72" s="13">
+        <v>5</v>
+      </c>
+      <c r="F72" s="13">
+        <v>5</v>
+      </c>
+      <c r="G72" s="13">
         <v>15</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="16">
         <v>50</v>
       </c>
-      <c r="I72" s="9">
+      <c r="I72" s="16">
         <v>90</v>
       </c>
-      <c r="J72" s="6">
+      <c r="J72" s="13">
         <v>370</v>
       </c>
-      <c r="K72" s="6">
+      <c r="K72" s="13">
         <v>1180</v>
       </c>
-      <c r="L72" s="14">
+      <c r="L72" s="21">
         <v>2400</v>
       </c>
-      <c r="M72" s="14">
+      <c r="M72" s="21">
         <v>6000</v>
       </c>
     </row>
-    <row r="73" ht="15.05" spans="1:13">
-      <c r="A73" s="5">
-        <v>5</v>
-      </c>
-      <c r="B73" s="3" t="s">
+    <row r="73" ht="15.15" spans="1:13">
+      <c r="A73" s="12">
+        <v>5</v>
+      </c>
+      <c r="B73" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="6">
-        <v>1</v>
-      </c>
-      <c r="E73" s="6">
-        <v>1</v>
-      </c>
-      <c r="F73" s="6">
-        <v>1</v>
-      </c>
-      <c r="G73" s="6">
-        <v>1</v>
-      </c>
-      <c r="H73" s="6">
-        <v>2</v>
-      </c>
-      <c r="I73" s="6">
-        <v>2</v>
-      </c>
-      <c r="J73" s="6">
+      <c r="C73" s="10"/>
+      <c r="D73" s="13">
+        <v>1</v>
+      </c>
+      <c r="E73" s="13">
+        <v>1</v>
+      </c>
+      <c r="F73" s="13">
+        <v>1</v>
+      </c>
+      <c r="G73" s="13">
+        <v>1</v>
+      </c>
+      <c r="H73" s="13">
+        <v>2</v>
+      </c>
+      <c r="I73" s="13">
+        <v>2</v>
+      </c>
+      <c r="J73" s="13">
         <v>3</v>
       </c>
-      <c r="K73" s="6">
+      <c r="K73" s="13">
         <v>6</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L73" s="13">
         <v>10</v>
       </c>
-      <c r="M73" s="6">
+      <c r="M73" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="74" ht="15.05" spans="1:13">
-      <c r="A74" s="2">
-        <v>5</v>
-      </c>
-      <c r="B74" s="3" t="s">
+    <row r="74" ht="15.15" spans="1:13">
+      <c r="A74" s="9">
+        <v>5</v>
+      </c>
+      <c r="B74" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="9">
+      <c r="C74" s="10"/>
+      <c r="D74" s="16">
         <v>340</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="21">
         <v>1000</v>
       </c>
-      <c r="F74" s="14">
+      <c r="F74" s="21">
         <v>2800</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="21">
         <v>3900</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="21">
         <v>6200</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I74" s="21">
         <v>11000</v>
       </c>
-      <c r="J74" s="14">
+      <c r="J74" s="21">
         <v>31000</v>
       </c>
-      <c r="K74" s="14">
+      <c r="K74" s="21">
         <v>79000</v>
       </c>
-      <c r="L74" s="14">
+      <c r="L74" s="21">
         <v>140000</v>
       </c>
-      <c r="M74" s="14">
+      <c r="M74" s="21">
         <v>367000</v>
       </c>
     </row>
-    <row r="75" ht="15.05" spans="1:13">
-      <c r="A75" s="5">
-        <v>5</v>
-      </c>
-      <c r="B75" s="3" t="s">
+    <row r="75" ht="15.15" spans="1:13">
+      <c r="A75" s="12">
+        <v>5</v>
+      </c>
+      <c r="B75" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="9">
-        <v>5</v>
-      </c>
-      <c r="E75" s="9">
-        <v>5</v>
-      </c>
-      <c r="F75" s="9">
-        <v>5</v>
-      </c>
-      <c r="G75" s="9">
-        <v>5</v>
-      </c>
-      <c r="H75" s="9">
-        <v>5</v>
-      </c>
-      <c r="I75" s="9">
-        <v>5</v>
-      </c>
-      <c r="J75" s="9">
+      <c r="C75" s="10"/>
+      <c r="D75" s="16">
+        <v>5</v>
+      </c>
+      <c r="E75" s="16">
+        <v>5</v>
+      </c>
+      <c r="F75" s="16">
+        <v>5</v>
+      </c>
+      <c r="G75" s="16">
+        <v>5</v>
+      </c>
+      <c r="H75" s="16">
+        <v>5</v>
+      </c>
+      <c r="I75" s="16">
+        <v>5</v>
+      </c>
+      <c r="J75" s="16">
         <v>10</v>
       </c>
-      <c r="K75" s="9">
+      <c r="K75" s="16">
         <v>15</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L75" s="13">
         <v>20</v>
       </c>
-      <c r="M75" s="6">
+      <c r="M75" s="13">
         <v>20</v>
       </c>
     </row>
-    <row r="76" ht="15.05" spans="1:13">
-      <c r="A76" s="5">
-        <v>5</v>
-      </c>
-      <c r="B76" s="3" t="s">
+    <row r="76" ht="15.15" spans="1:13">
+      <c r="A76" s="12">
+        <v>5</v>
+      </c>
+      <c r="B76" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="6">
-        <v>1</v>
-      </c>
-      <c r="E76" s="6">
-        <v>1</v>
-      </c>
-      <c r="F76" s="6">
-        <v>1</v>
-      </c>
-      <c r="G76" s="6">
-        <v>1</v>
-      </c>
-      <c r="H76" s="6">
-        <v>1</v>
-      </c>
-      <c r="I76" s="6">
-        <v>1</v>
-      </c>
-      <c r="J76" s="6">
-        <v>1</v>
-      </c>
-      <c r="K76" s="6">
-        <v>1</v>
-      </c>
-      <c r="L76" s="6">
-        <v>2</v>
-      </c>
-      <c r="M76" s="6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="77" ht="15.05" spans="1:13">
-      <c r="A77" s="5">
-        <v>5</v>
-      </c>
-      <c r="B77" s="3" t="s">
+      <c r="C76" s="10"/>
+      <c r="D76" s="13">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13">
+        <v>1</v>
+      </c>
+      <c r="F76" s="13">
+        <v>1</v>
+      </c>
+      <c r="G76" s="13">
+        <v>1</v>
+      </c>
+      <c r="H76" s="13">
+        <v>1</v>
+      </c>
+      <c r="I76" s="13">
+        <v>1</v>
+      </c>
+      <c r="J76" s="13">
+        <v>1</v>
+      </c>
+      <c r="K76" s="13">
+        <v>1</v>
+      </c>
+      <c r="L76" s="13">
+        <v>2</v>
+      </c>
+      <c r="M76" s="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" ht="15.15" spans="1:13">
+      <c r="A77" s="12">
+        <v>5</v>
+      </c>
+      <c r="B77" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="6">
-        <v>2</v>
-      </c>
-      <c r="E77" s="3">
-        <v>2</v>
-      </c>
-      <c r="F77" s="6">
-        <v>2</v>
-      </c>
-      <c r="G77" s="6">
-        <v>5</v>
-      </c>
-      <c r="H77" s="12">
+      <c r="C77" s="10"/>
+      <c r="D77" s="13">
+        <v>2</v>
+      </c>
+      <c r="E77" s="10">
+        <v>2</v>
+      </c>
+      <c r="F77" s="13">
+        <v>2</v>
+      </c>
+      <c r="G77" s="13">
+        <v>5</v>
+      </c>
+      <c r="H77" s="19">
         <v>15</v>
       </c>
-      <c r="I77" s="6">
+      <c r="I77" s="13">
         <v>30</v>
       </c>
-      <c r="J77" s="6">
+      <c r="J77" s="13">
         <v>60</v>
       </c>
-      <c r="K77" s="6">
+      <c r="K77" s="13">
         <v>100</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L77" s="13">
         <v>150</v>
       </c>
-      <c r="M77" s="6">
+      <c r="M77" s="13">
         <v>200</v>
       </c>
     </row>
-    <row r="78" ht="15.05" spans="1:13">
-      <c r="A78" s="6">
-        <v>5</v>
-      </c>
-      <c r="B78" s="7" t="s">
+    <row r="78" ht="15.15" spans="1:13">
+      <c r="A78" s="13">
+        <v>5</v>
+      </c>
+      <c r="B78" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="6">
+      <c r="C78" s="15"/>
+      <c r="D78" s="13">
         <v>300</v>
       </c>
-      <c r="E78" s="6">
+      <c r="E78" s="13">
         <v>520</v>
       </c>
-      <c r="F78" s="6">
+      <c r="F78" s="13">
         <v>780</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G78" s="21">
         <v>1150</v>
       </c>
-      <c r="H78" s="14">
+      <c r="H78" s="21">
         <v>1650</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I78" s="21">
         <v>2500</v>
       </c>
-      <c r="J78" s="14">
+      <c r="J78" s="21">
         <v>5300</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K78" s="21">
         <v>13000</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L78" s="21">
         <v>25000</v>
       </c>
-      <c r="M78" s="14">
+      <c r="M78" s="21">
         <v>100000</v>
       </c>
     </row>
-    <row r="79" ht="15.05" spans="1:13">
-      <c r="A79" s="6">
-        <v>5</v>
-      </c>
-      <c r="B79" s="7" t="s">
+    <row r="79" ht="15.15" spans="1:13">
+      <c r="A79" s="13">
+        <v>5</v>
+      </c>
+      <c r="B79" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C79" s="8"/>
-      <c r="D79" s="6">
+      <c r="C79" s="15"/>
+      <c r="D79" s="13">
         <v>20</v>
       </c>
-      <c r="E79" s="6">
+      <c r="E79" s="13">
         <v>80</v>
       </c>
-      <c r="F79" s="6">
+      <c r="F79" s="13">
         <v>440</v>
       </c>
-      <c r="G79" s="6">
+      <c r="G79" s="13">
         <v>640</v>
       </c>
-      <c r="H79" s="14">
+      <c r="H79" s="21">
         <v>1200</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I79" s="21">
         <v>1800</v>
       </c>
-      <c r="J79" s="14">
+      <c r="J79" s="21">
         <v>6300</v>
       </c>
-      <c r="K79" s="14">
+      <c r="K79" s="21">
         <v>17000</v>
       </c>
-      <c r="L79" s="14">
+      <c r="L79" s="21">
         <v>30000</v>
       </c>
-      <c r="M79" s="14">
+      <c r="M79" s="21">
         <v>82000</v>
       </c>
     </row>
-    <row r="80" ht="15.05" spans="1:13">
-      <c r="A80" s="6">
-        <v>5</v>
-      </c>
-      <c r="B80" s="7" t="s">
+    <row r="80" ht="15.15" spans="1:13">
+      <c r="A80" s="13">
+        <v>5</v>
+      </c>
+      <c r="B80" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C80" s="8"/>
-      <c r="D80" s="6">
+      <c r="C80" s="15"/>
+      <c r="D80" s="13">
         <v>55</v>
       </c>
-      <c r="E80" s="6">
+      <c r="E80" s="13">
         <v>80</v>
       </c>
-      <c r="F80" s="6">
+      <c r="F80" s="13">
         <v>100</v>
       </c>
-      <c r="G80" s="6">
+      <c r="G80" s="13">
         <v>140</v>
       </c>
-      <c r="H80" s="6">
+      <c r="H80" s="13">
         <v>180</v>
       </c>
-      <c r="I80" s="6">
+      <c r="I80" s="13">
         <v>230</v>
       </c>
-      <c r="J80" s="6">
+      <c r="J80" s="13">
         <v>300</v>
       </c>
-      <c r="K80" s="6">
+      <c r="K80" s="13">
         <v>300</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L80" s="13">
         <v>300</v>
       </c>
-      <c r="M80" s="6">
+      <c r="M80" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="81" ht="15.05" spans="1:13">
-      <c r="A81" s="6">
-        <v>5</v>
-      </c>
-      <c r="B81" s="15" t="s">
+    <row r="81" ht="15.15" spans="1:13">
+      <c r="A81" s="13">
+        <v>5</v>
+      </c>
+      <c r="B81" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C81" s="16"/>
-      <c r="D81" s="6">
-        <v>1</v>
-      </c>
-      <c r="E81" s="6">
-        <v>1</v>
-      </c>
-      <c r="F81" s="6">
-        <v>1</v>
-      </c>
-      <c r="G81" s="6">
-        <v>1</v>
-      </c>
-      <c r="H81" s="6">
-        <v>2</v>
-      </c>
-      <c r="I81" s="6">
+      <c r="C81" s="23"/>
+      <c r="D81" s="13">
+        <v>1</v>
+      </c>
+      <c r="E81" s="13">
+        <v>1</v>
+      </c>
+      <c r="F81" s="13">
+        <v>1</v>
+      </c>
+      <c r="G81" s="13">
+        <v>1</v>
+      </c>
+      <c r="H81" s="13">
+        <v>2</v>
+      </c>
+      <c r="I81" s="13">
         <v>3</v>
       </c>
-      <c r="J81" s="6">
-        <v>5</v>
-      </c>
-      <c r="K81" s="6">
+      <c r="J81" s="13">
+        <v>5</v>
+      </c>
+      <c r="K81" s="13">
         <v>8</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L81" s="13">
         <v>12</v>
       </c>
-      <c r="M81" s="6">
+      <c r="M81" s="13">
         <v>16</v>
       </c>
     </row>
-    <row r="82" ht="15.05" spans="1:13">
-      <c r="A82" s="6">
-        <v>5</v>
-      </c>
-      <c r="B82" s="7" t="s">
+    <row r="82" ht="15.15" spans="1:13">
+      <c r="A82" s="13">
+        <v>5</v>
+      </c>
+      <c r="B82" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C82" s="8"/>
-      <c r="D82" s="6">
-        <v>1</v>
-      </c>
-      <c r="E82" s="6">
-        <v>1</v>
-      </c>
-      <c r="F82" s="6">
-        <v>2</v>
-      </c>
-      <c r="G82" s="6">
-        <v>5</v>
-      </c>
-      <c r="H82" s="6">
+      <c r="C82" s="15"/>
+      <c r="D82" s="13">
+        <v>1</v>
+      </c>
+      <c r="E82" s="13">
+        <v>1</v>
+      </c>
+      <c r="F82" s="13">
+        <v>2</v>
+      </c>
+      <c r="G82" s="13">
+        <v>5</v>
+      </c>
+      <c r="H82" s="13">
         <v>15</v>
       </c>
-      <c r="I82" s="6">
+      <c r="I82" s="13">
         <v>35</v>
       </c>
-      <c r="J82" s="6">
+      <c r="J82" s="13">
         <v>60</v>
       </c>
-      <c r="K82" s="6">
+      <c r="K82" s="13">
         <v>200</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L82" s="13">
         <v>400</v>
       </c>
-      <c r="M82" s="6">
+      <c r="M82" s="13">
         <v>900</v>
       </c>
     </row>
-    <row r="83" ht="15.05" spans="1:13">
-      <c r="A83" s="6">
-        <v>5</v>
-      </c>
-      <c r="B83" s="7" t="s">
+    <row r="83" ht="15.15" spans="1:13">
+      <c r="A83" s="13">
+        <v>5</v>
+      </c>
+      <c r="B83" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="6">
+      <c r="C83" s="15"/>
+      <c r="D83" s="13">
         <v>2200</v>
       </c>
-      <c r="E83" s="6">
+      <c r="E83" s="13">
         <v>4200</v>
       </c>
-      <c r="F83" s="14">
+      <c r="F83" s="21">
         <v>6800</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G83" s="21">
         <v>12000</v>
       </c>
-      <c r="H83" s="14">
+      <c r="H83" s="21">
         <v>20000</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I83" s="21">
         <v>32000</v>
       </c>
-      <c r="J83" s="14">
+      <c r="J83" s="21">
         <v>78000</v>
       </c>
-      <c r="K83" s="14">
+      <c r="K83" s="21">
         <v>185000</v>
       </c>
-      <c r="L83" s="14">
+      <c r="L83" s="21">
         <v>296000</v>
       </c>
-      <c r="M83" s="14">
+      <c r="M83" s="21">
         <v>714000</v>
       </c>
     </row>
-    <row r="84" ht="15.05" spans="1:13">
-      <c r="A84" s="6">
-        <v>5</v>
-      </c>
-      <c r="B84" s="7" t="s">
+    <row r="84" ht="15.15" spans="1:13">
+      <c r="A84" s="13">
+        <v>5</v>
+      </c>
+      <c r="B84" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C84" s="8"/>
-      <c r="D84" s="6">
+      <c r="C84" s="15"/>
+      <c r="D84" s="13">
         <v>80</v>
       </c>
-      <c r="E84" s="6">
+      <c r="E84" s="13">
         <v>170</v>
       </c>
-      <c r="F84" s="6">
+      <c r="F84" s="13">
         <v>240</v>
       </c>
-      <c r="G84" s="6">
+      <c r="G84" s="13">
         <v>420</v>
       </c>
-      <c r="H84" s="6">
+      <c r="H84" s="13">
         <v>620</v>
       </c>
-      <c r="I84" s="6">
+      <c r="I84" s="13">
         <v>900</v>
       </c>
-      <c r="J84" s="6">
+      <c r="J84" s="13">
         <v>1800</v>
       </c>
-      <c r="K84" s="6">
+      <c r="K84" s="13">
         <v>3200</v>
       </c>
-      <c r="L84" s="6">
+      <c r="L84" s="13">
         <v>4800</v>
       </c>
-      <c r="M84" s="6">
+      <c r="M84" s="13">
         <v>13500</v>
       </c>
     </row>
-    <row r="85" ht="15.05" spans="1:13">
-      <c r="A85" s="2">
+    <row r="85" ht="15.15" spans="1:13">
+      <c r="A85" s="9">
         <v>6</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="6">
+      <c r="C85" s="10"/>
+      <c r="D85" s="13">
         <v>350</v>
       </c>
-      <c r="E85" s="6">
+      <c r="E85" s="13">
         <v>550</v>
       </c>
-      <c r="F85" s="6">
+      <c r="F85" s="13">
         <v>750</v>
       </c>
-      <c r="G85" s="6">
+      <c r="G85" s="13">
         <v>1000</v>
       </c>
-      <c r="H85" s="6">
+      <c r="H85" s="13">
         <v>1600</v>
       </c>
-      <c r="I85" s="6">
+      <c r="I85" s="13">
         <v>1600</v>
       </c>
-      <c r="J85" s="6">
+      <c r="J85" s="13">
         <v>2100</v>
       </c>
-      <c r="K85" s="6">
+      <c r="K85" s="13">
         <v>2100</v>
       </c>
-      <c r="L85" s="6">
+      <c r="L85" s="13">
         <v>2100</v>
       </c>
-      <c r="M85" s="6">
+      <c r="M85" s="13">
         <v>2100</v>
       </c>
     </row>
-    <row r="86" ht="15.05" spans="1:13">
-      <c r="A86" s="2">
+    <row r="86" ht="15.15" spans="1:13">
+      <c r="A86" s="9">
         <v>6</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3">
-        <v>1</v>
-      </c>
-      <c r="E86" s="3">
+      <c r="C86" s="10"/>
+      <c r="D86" s="10">
+        <v>1</v>
+      </c>
+      <c r="E86" s="10">
         <v>3</v>
       </c>
-      <c r="F86" s="6">
+      <c r="F86" s="13">
         <v>4</v>
       </c>
-      <c r="G86" s="3">
-        <v>5</v>
-      </c>
-      <c r="H86" s="6">
-        <v>5</v>
-      </c>
-      <c r="I86" s="6">
+      <c r="G86" s="10">
+        <v>5</v>
+      </c>
+      <c r="H86" s="13">
+        <v>5</v>
+      </c>
+      <c r="I86" s="13">
         <v>6</v>
       </c>
-      <c r="J86" s="6">
+      <c r="J86" s="13">
         <v>6</v>
       </c>
-      <c r="K86" s="6">
+      <c r="K86" s="13">
         <v>6</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L86" s="13">
         <v>6</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M86" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="87" ht="15.05" spans="1:13">
-      <c r="A87" s="4">
+    <row r="87" ht="15.15" spans="1:13">
+      <c r="A87" s="11">
         <v>6</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="14">
+      <c r="C87" s="10"/>
+      <c r="D87" s="21">
         <v>11000</v>
       </c>
-      <c r="E87" s="14">
+      <c r="E87" s="21">
         <v>21000</v>
       </c>
-      <c r="F87" s="14">
+      <c r="F87" s="21">
         <v>29000</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G87" s="21">
         <v>39000</v>
       </c>
-      <c r="H87" s="14">
+      <c r="H87" s="21">
         <v>52000</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I87" s="21">
         <v>89000</v>
       </c>
-      <c r="J87" s="14">
+      <c r="J87" s="21">
         <v>228000</v>
       </c>
-      <c r="K87" s="14">
+      <c r="K87" s="21">
         <v>560000</v>
       </c>
-      <c r="L87" s="14">
+      <c r="L87" s="21">
         <v>1000000</v>
       </c>
-      <c r="M87" s="14">
+      <c r="M87" s="21">
         <v>1800000</v>
       </c>
     </row>
-    <row r="88" ht="15.05" spans="1:13">
-      <c r="A88" s="2">
+    <row r="88" ht="15.15" spans="1:13">
+      <c r="A88" s="9">
         <v>6</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="6">
-        <v>1</v>
-      </c>
-      <c r="E88" s="6">
-        <v>1</v>
-      </c>
-      <c r="F88" s="6">
-        <v>2</v>
-      </c>
-      <c r="G88" s="6">
-        <v>2</v>
-      </c>
-      <c r="H88" s="6">
-        <v>2</v>
-      </c>
-      <c r="I88" s="6">
+      <c r="C88" s="10"/>
+      <c r="D88" s="13">
+        <v>1</v>
+      </c>
+      <c r="E88" s="13">
+        <v>1</v>
+      </c>
+      <c r="F88" s="13">
+        <v>2</v>
+      </c>
+      <c r="G88" s="13">
+        <v>2</v>
+      </c>
+      <c r="H88" s="13">
+        <v>2</v>
+      </c>
+      <c r="I88" s="13">
         <v>3</v>
       </c>
-      <c r="J88" s="6">
+      <c r="J88" s="13">
         <v>7</v>
       </c>
-      <c r="K88" s="6">
+      <c r="K88" s="13">
         <v>10</v>
       </c>
-      <c r="L88" s="6">
+      <c r="L88" s="13">
         <v>10</v>
       </c>
-      <c r="M88" s="6">
+      <c r="M88" s="13">
         <v>10</v>
       </c>
     </row>
-    <row r="89" ht="15.05" spans="1:13">
-      <c r="A89" s="2">
+    <row r="89" ht="15.15" spans="1:13">
+      <c r="A89" s="9">
         <v>6</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="14">
+      <c r="C89" s="10"/>
+      <c r="D89" s="21">
         <v>95000</v>
       </c>
-      <c r="E89" s="14">
+      <c r="E89" s="21">
         <v>206000</v>
       </c>
-      <c r="F89" s="14">
+      <c r="F89" s="21">
         <v>306000</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G89" s="21">
         <v>506000</v>
       </c>
-      <c r="H89" s="14">
+      <c r="H89" s="21">
         <v>800000</v>
       </c>
-      <c r="I89" s="14">
+      <c r="I89" s="21">
         <v>1280000</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J89" s="21">
         <v>3000000</v>
       </c>
-      <c r="K89" s="14">
+      <c r="K89" s="21">
         <v>7200000</v>
       </c>
-      <c r="L89" s="14">
+      <c r="L89" s="21">
         <v>10000000</v>
       </c>
-      <c r="M89" s="14">
+      <c r="M89" s="21">
         <v>15000000</v>
       </c>
     </row>
-    <row r="90" ht="15.05" spans="1:13">
-      <c r="A90" s="2">
+    <row r="90" ht="15.15" spans="1:13">
+      <c r="A90" s="9">
         <v>6</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="14">
+      <c r="C90" s="10"/>
+      <c r="D90" s="21">
         <v>1660</v>
       </c>
-      <c r="E90" s="14">
+      <c r="E90" s="21">
         <v>3800</v>
       </c>
-      <c r="F90" s="14">
+      <c r="F90" s="21">
         <v>5200</v>
       </c>
-      <c r="G90" s="14">
+      <c r="G90" s="21">
         <v>7500</v>
       </c>
-      <c r="H90" s="14">
+      <c r="H90" s="21">
         <v>10000</v>
       </c>
-      <c r="I90" s="14">
+      <c r="I90" s="21">
         <v>15000</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J90" s="21">
         <v>31000</v>
       </c>
-      <c r="K90" s="14">
+      <c r="K90" s="21">
         <v>59000</v>
       </c>
-      <c r="L90" s="14">
+      <c r="L90" s="21">
         <v>94000</v>
       </c>
-      <c r="M90" s="14">
+      <c r="M90" s="21">
         <v>130000</v>
       </c>
     </row>
-    <row r="91" ht="15.05" spans="1:13">
-      <c r="A91" s="2">
+    <row r="91" ht="15.15" spans="1:13">
+      <c r="A91" s="9">
         <v>6</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="6">
+      <c r="C91" s="10"/>
+      <c r="D91" s="13">
         <v>14</v>
       </c>
-      <c r="E91" s="6">
+      <c r="E91" s="13">
         <v>20</v>
       </c>
-      <c r="F91" s="6">
+      <c r="F91" s="13">
         <v>28</v>
       </c>
-      <c r="G91" s="6">
+      <c r="G91" s="13">
         <v>39</v>
       </c>
-      <c r="H91" s="6">
+      <c r="H91" s="13">
         <v>50</v>
       </c>
-      <c r="I91" s="6">
+      <c r="I91" s="13">
         <v>86</v>
       </c>
-      <c r="J91" s="6">
+      <c r="J91" s="13">
         <v>206</v>
       </c>
-      <c r="K91" s="6">
+      <c r="K91" s="13">
         <v>500</v>
       </c>
-      <c r="L91" s="6">
+      <c r="L91" s="13">
         <v>920</v>
       </c>
-      <c r="M91" s="6">
+      <c r="M91" s="13">
         <v>2200</v>
       </c>
     </row>
-    <row r="92" ht="15.05" spans="1:13">
-      <c r="A92" s="2">
+    <row r="92" ht="15.15" spans="1:13">
+      <c r="A92" s="9">
         <v>6</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="6">
-        <v>5</v>
-      </c>
-      <c r="E92" s="6">
-        <v>5</v>
-      </c>
-      <c r="F92" s="6">
-        <v>5</v>
-      </c>
-      <c r="G92" s="9">
+      <c r="C92" s="10"/>
+      <c r="D92" s="13">
+        <v>5</v>
+      </c>
+      <c r="E92" s="13">
+        <v>5</v>
+      </c>
+      <c r="F92" s="13">
+        <v>5</v>
+      </c>
+      <c r="G92" s="16">
         <v>150</v>
       </c>
-      <c r="H92" s="9">
+      <c r="H92" s="16">
         <v>300</v>
       </c>
-      <c r="I92" s="9">
+      <c r="I92" s="16">
         <v>820</v>
       </c>
-      <c r="J92" s="14">
+      <c r="J92" s="21">
         <v>2480</v>
       </c>
-      <c r="K92" s="6">
+      <c r="K92" s="13">
         <v>5700</v>
       </c>
-      <c r="L92" s="14">
+      <c r="L92" s="21">
         <v>9200</v>
       </c>
-      <c r="M92" s="14">
+      <c r="M92" s="21">
         <v>16000</v>
       </c>
     </row>
-    <row r="93" ht="15.05" spans="1:13">
-      <c r="A93" s="5">
+    <row r="93" ht="15.15" spans="1:13">
+      <c r="A93" s="12">
         <v>6</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="6">
-        <v>1</v>
-      </c>
-      <c r="E93" s="6">
-        <v>1</v>
-      </c>
-      <c r="F93" s="6">
-        <v>1</v>
-      </c>
-      <c r="G93" s="6">
-        <v>2</v>
-      </c>
-      <c r="H93" s="6">
-        <v>5</v>
-      </c>
-      <c r="I93" s="6">
-        <v>5</v>
-      </c>
-      <c r="J93" s="6">
+      <c r="C93" s="10"/>
+      <c r="D93" s="13">
+        <v>1</v>
+      </c>
+      <c r="E93" s="13">
+        <v>1</v>
+      </c>
+      <c r="F93" s="13">
+        <v>1</v>
+      </c>
+      <c r="G93" s="13">
+        <v>2</v>
+      </c>
+      <c r="H93" s="13">
+        <v>5</v>
+      </c>
+      <c r="I93" s="13">
+        <v>5</v>
+      </c>
+      <c r="J93" s="13">
         <v>10</v>
       </c>
-      <c r="K93" s="6">
+      <c r="K93" s="13">
         <v>20</v>
       </c>
-      <c r="L93" s="6">
+      <c r="L93" s="13">
         <v>40</v>
       </c>
-      <c r="M93" s="6">
+      <c r="M93" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="94" ht="15.05" spans="1:13">
-      <c r="A94" s="2">
+    <row r="94" ht="15.15" spans="1:13">
+      <c r="A94" s="9">
         <v>6</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="6">
+      <c r="C94" s="10"/>
+      <c r="D94" s="13">
         <v>8400</v>
       </c>
-      <c r="E94" s="14">
+      <c r="E94" s="21">
         <v>18000</v>
       </c>
-      <c r="F94" s="14">
+      <c r="F94" s="21">
         <v>28000</v>
       </c>
-      <c r="G94" s="14">
+      <c r="G94" s="21">
         <v>41000</v>
       </c>
-      <c r="H94" s="14">
+      <c r="H94" s="21">
         <v>62000</v>
       </c>
-      <c r="I94" s="14">
+      <c r="I94" s="21">
         <v>82000</v>
       </c>
-      <c r="J94" s="14">
+      <c r="J94" s="21">
         <v>181000</v>
       </c>
-      <c r="K94" s="14">
+      <c r="K94" s="21">
         <v>376000</v>
       </c>
-      <c r="L94" s="14">
+      <c r="L94" s="21">
         <v>560000</v>
       </c>
-      <c r="M94" s="14">
+      <c r="M94" s="21">
         <v>800000</v>
       </c>
     </row>
-    <row r="95" ht="15.05" spans="1:13">
-      <c r="A95" s="5">
+    <row r="95" ht="15.15" spans="1:13">
+      <c r="A95" s="12">
         <v>6</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="9">
-        <v>5</v>
-      </c>
-      <c r="E95" s="9">
-        <v>5</v>
-      </c>
-      <c r="F95" s="9">
-        <v>5</v>
-      </c>
-      <c r="G95" s="9">
-        <v>5</v>
-      </c>
-      <c r="H95" s="9">
-        <v>5</v>
-      </c>
-      <c r="I95" s="9">
+      <c r="C95" s="10"/>
+      <c r="D95" s="16">
+        <v>5</v>
+      </c>
+      <c r="E95" s="16">
+        <v>5</v>
+      </c>
+      <c r="F95" s="16">
+        <v>5</v>
+      </c>
+      <c r="G95" s="16">
+        <v>5</v>
+      </c>
+      <c r="H95" s="16">
+        <v>5</v>
+      </c>
+      <c r="I95" s="16">
         <v>10</v>
       </c>
-      <c r="J95" s="6">
+      <c r="J95" s="13">
         <v>15</v>
       </c>
-      <c r="K95" s="6">
+      <c r="K95" s="13">
         <v>30</v>
       </c>
-      <c r="L95" s="6">
+      <c r="L95" s="13">
         <v>60</v>
       </c>
-      <c r="M95" s="6">
+      <c r="M95" s="13">
         <v>100</v>
       </c>
     </row>
-    <row r="96" ht="15.05" spans="1:13">
-      <c r="A96" s="5">
+    <row r="96" ht="15.15" spans="1:13">
+      <c r="A96" s="12">
         <v>6</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="6">
-        <v>1</v>
-      </c>
-      <c r="E96" s="6">
-        <v>1</v>
-      </c>
-      <c r="F96" s="6">
-        <v>1</v>
-      </c>
-      <c r="G96" s="6">
-        <v>1</v>
-      </c>
-      <c r="H96" s="6">
-        <v>1</v>
-      </c>
-      <c r="I96" s="6">
-        <v>1</v>
-      </c>
-      <c r="J96" s="6">
-        <v>2</v>
-      </c>
-      <c r="K96" s="6">
+      <c r="C96" s="10"/>
+      <c r="D96" s="13">
+        <v>1</v>
+      </c>
+      <c r="E96" s="13">
+        <v>1</v>
+      </c>
+      <c r="F96" s="13">
+        <v>1</v>
+      </c>
+      <c r="G96" s="13">
+        <v>1</v>
+      </c>
+      <c r="H96" s="13">
+        <v>1</v>
+      </c>
+      <c r="I96" s="13">
+        <v>1</v>
+      </c>
+      <c r="J96" s="13">
+        <v>2</v>
+      </c>
+      <c r="K96" s="13">
         <v>3</v>
       </c>
-      <c r="L96" s="6">
-        <v>5</v>
-      </c>
-      <c r="M96" s="6">
+      <c r="L96" s="13">
+        <v>5</v>
+      </c>
+      <c r="M96" s="13">
         <v>8</v>
       </c>
     </row>
-    <row r="97" ht="15.05" spans="1:13">
-      <c r="A97" s="5">
+    <row r="97" ht="15.15" spans="1:13">
+      <c r="A97" s="12">
         <v>6</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="6">
-        <v>2</v>
-      </c>
-      <c r="E97" s="3">
-        <v>2</v>
-      </c>
-      <c r="F97" s="6">
-        <v>2</v>
-      </c>
-      <c r="G97" s="6">
-        <v>5</v>
-      </c>
-      <c r="H97" s="6">
+      <c r="C97" s="10"/>
+      <c r="D97" s="13">
+        <v>2</v>
+      </c>
+      <c r="E97" s="10">
+        <v>2</v>
+      </c>
+      <c r="F97" s="13">
+        <v>2</v>
+      </c>
+      <c r="G97" s="13">
+        <v>5</v>
+      </c>
+      <c r="H97" s="13">
         <v>15</v>
       </c>
-      <c r="I97" s="6">
+      <c r="I97" s="13">
         <v>30</v>
       </c>
-      <c r="J97" s="6">
+      <c r="J97" s="13">
         <v>60</v>
       </c>
-      <c r="K97" s="6">
+      <c r="K97" s="13">
         <v>100</v>
       </c>
-      <c r="L97" s="6">
+      <c r="L97" s="13">
         <v>150</v>
       </c>
-      <c r="M97" s="6">
+      <c r="M97" s="13">
         <v>200</v>
       </c>
     </row>
-    <row r="98" ht="15.05" spans="1:13">
-      <c r="A98" s="6">
+    <row r="98" ht="15.15" spans="1:13">
+      <c r="A98" s="13">
         <v>6</v>
       </c>
-      <c r="B98" s="7" t="s">
+      <c r="B98" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C98" s="8"/>
-      <c r="D98" s="6">
+      <c r="C98" s="15"/>
+      <c r="D98" s="13">
         <v>1600</v>
       </c>
-      <c r="E98" s="6">
+      <c r="E98" s="13">
         <v>2800</v>
       </c>
-      <c r="F98" s="6">
+      <c r="F98" s="13">
         <v>4000</v>
       </c>
-      <c r="G98" s="14">
+      <c r="G98" s="21">
         <v>6000</v>
       </c>
-      <c r="H98" s="14">
+      <c r="H98" s="21">
         <v>8500</v>
       </c>
-      <c r="I98" s="14">
+      <c r="I98" s="21">
         <v>14000</v>
       </c>
-      <c r="J98" s="14">
+      <c r="J98" s="21">
         <v>37000</v>
       </c>
-      <c r="K98" s="14">
+      <c r="K98" s="21">
         <v>93000</v>
       </c>
-      <c r="L98" s="14">
+      <c r="L98" s="21">
         <v>180000</v>
       </c>
-      <c r="M98" s="14">
+      <c r="M98" s="21">
         <v>500000</v>
       </c>
     </row>
-    <row r="99" ht="15.05" spans="1:13">
-      <c r="A99" s="6">
+    <row r="99" ht="15.15" spans="1:13">
+      <c r="A99" s="13">
         <v>6</v>
       </c>
-      <c r="B99" s="7" t="s">
+      <c r="B99" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="6">
+      <c r="C99" s="15"/>
+      <c r="D99" s="13">
         <v>800</v>
       </c>
-      <c r="E99" s="14">
+      <c r="E99" s="21">
         <v>1800</v>
       </c>
-      <c r="F99" s="14">
+      <c r="F99" s="21">
         <v>5500</v>
       </c>
-      <c r="G99" s="14">
+      <c r="G99" s="21">
         <v>7500</v>
       </c>
-      <c r="H99" s="14">
+      <c r="H99" s="21">
         <v>10000</v>
       </c>
-      <c r="I99" s="14">
+      <c r="I99" s="21">
         <v>12000</v>
       </c>
-      <c r="J99" s="14">
+      <c r="J99" s="21">
         <v>31000</v>
       </c>
-      <c r="K99" s="14">
+      <c r="K99" s="21">
         <v>71000</v>
       </c>
-      <c r="L99" s="14">
+      <c r="L99" s="21">
         <v>110000</v>
       </c>
-      <c r="M99" s="14">
+      <c r="M99" s="21">
         <v>200000</v>
       </c>
     </row>
-    <row r="100" ht="15.05" spans="1:13">
-      <c r="A100" s="6">
+    <row r="100" ht="15.15" spans="1:13">
+      <c r="A100" s="13">
         <v>6</v>
       </c>
-      <c r="B100" s="7" t="s">
+      <c r="B100" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="8"/>
-      <c r="D100" s="6">
+      <c r="C100" s="15"/>
+      <c r="D100" s="13">
         <v>70</v>
       </c>
-      <c r="E100" s="6">
+      <c r="E100" s="13">
         <v>100</v>
       </c>
-      <c r="F100" s="6">
+      <c r="F100" s="13">
         <v>140</v>
       </c>
-      <c r="G100" s="6">
+      <c r="G100" s="13">
         <v>180</v>
       </c>
-      <c r="H100" s="6">
+      <c r="H100" s="13">
         <v>220</v>
       </c>
-      <c r="I100" s="6">
+      <c r="I100" s="13">
         <v>280</v>
       </c>
-      <c r="J100" s="6">
+      <c r="J100" s="13">
         <v>300</v>
       </c>
-      <c r="K100" s="6">
+      <c r="K100" s="13">
         <v>300</v>
       </c>
-      <c r="L100" s="6">
+      <c r="L100" s="13">
         <v>300</v>
       </c>
-      <c r="M100" s="6">
+      <c r="M100" s="13">
         <v>300</v>
       </c>
     </row>
-    <row r="101" ht="15.05" spans="1:13">
-      <c r="A101" s="6">
+    <row r="101" ht="15.15" spans="1:13">
+      <c r="A101" s="13">
         <v>6</v>
       </c>
-      <c r="B101" s="15" t="s">
+      <c r="B101" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="C101" s="16"/>
-      <c r="D101" s="6">
-        <v>1</v>
-      </c>
-      <c r="E101" s="6">
-        <v>1</v>
-      </c>
-      <c r="F101" s="6">
-        <v>2</v>
-      </c>
-      <c r="G101" s="6">
+      <c r="C101" s="23"/>
+      <c r="D101" s="13">
+        <v>1</v>
+      </c>
+      <c r="E101" s="13">
+        <v>1</v>
+      </c>
+      <c r="F101" s="13">
+        <v>2</v>
+      </c>
+      <c r="G101" s="13">
         <v>4</v>
       </c>
-      <c r="H101" s="6">
+      <c r="H101" s="13">
         <v>8</v>
       </c>
-      <c r="I101" s="9">
+      <c r="I101" s="16">
         <v>15</v>
       </c>
-      <c r="J101" s="9">
+      <c r="J101" s="16">
         <v>25</v>
       </c>
-      <c r="K101" s="6">
+      <c r="K101" s="13">
         <v>40</v>
       </c>
-      <c r="L101" s="6">
+      <c r="L101" s="13">
         <v>60</v>
       </c>
-      <c r="M101" s="6">
+      <c r="M101" s="13">
         <v>80</v>
       </c>
     </row>
-    <row r="102" ht="15.05" spans="1:13">
-      <c r="A102" s="6">
+    <row r="102" ht="15.15" spans="1:13">
+      <c r="A102" s="13">
         <v>6</v>
       </c>
-      <c r="B102" s="7" t="s">
+      <c r="B102" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="6">
-        <v>1</v>
-      </c>
-      <c r="E102" s="6">
-        <v>5</v>
-      </c>
-      <c r="F102" s="6">
+      <c r="C102" s="15"/>
+      <c r="D102" s="13">
+        <v>1</v>
+      </c>
+      <c r="E102" s="13">
+        <v>5</v>
+      </c>
+      <c r="F102" s="13">
         <v>10</v>
       </c>
-      <c r="G102" s="6">
+      <c r="G102" s="13">
         <v>30</v>
       </c>
-      <c r="H102" s="6">
+      <c r="H102" s="13">
         <v>100</v>
       </c>
-      <c r="I102" s="6">
+      <c r="I102" s="13">
         <v>185</v>
       </c>
-      <c r="J102" s="6">
+      <c r="J102" s="13">
         <v>365</v>
       </c>
-      <c r="K102" s="6">
+      <c r="K102" s="13">
         <v>860</v>
       </c>
-      <c r="L102" s="6">
+      <c r="L102" s="13">
         <v>1400</v>
       </c>
-      <c r="M102" s="6">
+      <c r="M102" s="13">
         <v>3600</v>
       </c>
     </row>
-    <row r="103" ht="15.05" spans="1:13">
-      <c r="A103" s="6">
+    <row r="103" ht="15.15" spans="1:13">
+      <c r="A103" s="13">
         <v>6</v>
       </c>
-      <c r="B103" s="7" t="s">
+      <c r="B103" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="6">
+      <c r="C103" s="15"/>
+      <c r="D103" s="13">
         <v>15000</v>
       </c>
-      <c r="E103" s="6">
+      <c r="E103" s="13">
         <v>28000</v>
       </c>
-      <c r="F103" s="14">
+      <c r="F103" s="21">
         <v>42000</v>
       </c>
-      <c r="G103" s="14">
+      <c r="G103" s="21">
         <v>72000</v>
       </c>
-      <c r="H103" s="14">
+      <c r="H103" s="21">
         <v>110000</v>
       </c>
-      <c r="I103" s="14">
+      <c r="I103" s="21">
         <v>185000</v>
       </c>
-      <c r="J103" s="14">
+      <c r="J103" s="21">
         <v>460000</v>
       </c>
-      <c r="K103" s="14">
+      <c r="K103" s="21">
         <v>1000000</v>
       </c>
-      <c r="L103" s="14">
+      <c r="L103" s="21">
         <v>1650000</v>
       </c>
-      <c r="M103" s="14">
+      <c r="M103" s="21">
         <v>3900000</v>
       </c>
     </row>
-    <row r="104" ht="15.05" spans="1:13">
-      <c r="A104" s="6">
+    <row r="104" ht="15.15" spans="1:13">
+      <c r="A104" s="13">
         <v>6</v>
       </c>
-      <c r="B104" s="7" t="s">
+      <c r="B104" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C104" s="8"/>
-      <c r="D104" s="6">
+      <c r="C104" s="15"/>
+      <c r="D104" s="13">
         <v>200</v>
       </c>
-      <c r="E104" s="6">
+      <c r="E104" s="13">
         <v>500</v>
       </c>
-      <c r="F104" s="6">
+      <c r="F104" s="13">
         <v>800</v>
       </c>
-      <c r="G104" s="6">
+      <c r="G104" s="13">
         <v>1100</v>
       </c>
-      <c r="H104" s="6">
+      <c r="H104" s="13">
         <v>1600</v>
       </c>
-      <c r="I104" s="6">
+      <c r="I104" s="13">
         <v>2300</v>
       </c>
-      <c r="J104" s="6">
+      <c r="J104" s="13">
         <v>5200</v>
       </c>
-      <c r="K104" s="6">
+      <c r="K104" s="13">
         <v>9200</v>
       </c>
-      <c r="L104" s="6">
+      <c r="L104" s="13">
         <v>15000</v>
       </c>
-      <c r="M104" s="6">
+      <c r="M104" s="13">
         <v>45000</v>
       </c>
     </row>
@@ -5271,14 +6493,527 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:12">
+      <c r="A1" s="4"/>
+      <c r="B1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" ht="15.9" customHeight="1" spans="1:12">
+      <c r="A2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5">
+        <v>40</v>
+      </c>
+      <c r="D2" s="5">
+        <v>40</v>
+      </c>
+      <c r="E2" s="5">
+        <v>45</v>
+      </c>
+      <c r="F2" s="5">
+        <v>55</v>
+      </c>
+      <c r="G2" s="5">
+        <v>60</v>
+      </c>
+      <c r="H2" s="5">
+        <v>75</v>
+      </c>
+      <c r="I2" s="5">
+        <v>85</v>
+      </c>
+      <c r="J2" s="5">
+        <v>100</v>
+      </c>
+      <c r="K2" s="5">
+        <v>120</v>
+      </c>
+      <c r="L2" s="5">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:12">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5">
+        <v>45</v>
+      </c>
+      <c r="E3" s="5">
+        <v>50</v>
+      </c>
+      <c r="F3" s="5">
+        <v>60</v>
+      </c>
+      <c r="G3" s="5">
+        <v>70</v>
+      </c>
+      <c r="H3" s="5">
+        <v>85</v>
+      </c>
+      <c r="I3" s="5">
+        <v>100</v>
+      </c>
+      <c r="J3" s="5">
+        <v>115</v>
+      </c>
+      <c r="K3" s="5">
+        <v>135</v>
+      </c>
+      <c r="L3" s="5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:12">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>50</v>
+      </c>
+      <c r="D4" s="5">
+        <v>50</v>
+      </c>
+      <c r="E4" s="5">
+        <v>60</v>
+      </c>
+      <c r="F4" s="5">
+        <v>65</v>
+      </c>
+      <c r="G4" s="5">
+        <v>80</v>
+      </c>
+      <c r="H4" s="5">
+        <v>90</v>
+      </c>
+      <c r="I4" s="5">
+        <v>110</v>
+      </c>
+      <c r="J4" s="5">
+        <v>125</v>
+      </c>
+      <c r="K4" s="5">
+        <v>145</v>
+      </c>
+      <c r="L4" s="5">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:12">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4">
+        <v>4</v>
+      </c>
+      <c r="C5" s="5">
+        <v>60</v>
+      </c>
+      <c r="D5" s="5">
+        <v>60</v>
+      </c>
+      <c r="E5" s="5">
+        <v>70</v>
+      </c>
+      <c r="F5" s="5">
+        <v>80</v>
+      </c>
+      <c r="G5" s="5">
+        <v>90</v>
+      </c>
+      <c r="H5" s="5">
+        <v>105</v>
+      </c>
+      <c r="I5" s="5">
+        <v>120</v>
+      </c>
+      <c r="J5" s="5">
+        <v>140</v>
+      </c>
+      <c r="K5" s="5">
+        <v>165</v>
+      </c>
+      <c r="L5" s="5">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:12">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4">
+        <v>5</v>
+      </c>
+      <c r="C6" s="5">
+        <v>70</v>
+      </c>
+      <c r="D6" s="5">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5">
+        <v>80</v>
+      </c>
+      <c r="F6" s="5">
+        <v>90</v>
+      </c>
+      <c r="G6" s="5">
+        <v>100</v>
+      </c>
+      <c r="H6" s="5">
+        <v>115</v>
+      </c>
+      <c r="I6" s="5">
+        <v>135</v>
+      </c>
+      <c r="J6" s="5">
+        <v>155</v>
+      </c>
+      <c r="K6" s="5">
+        <v>180</v>
+      </c>
+      <c r="L6" s="5">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" ht="15.15" spans="1:12">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5">
+        <v>80</v>
+      </c>
+      <c r="D7" s="5">
+        <v>80</v>
+      </c>
+      <c r="E7" s="5">
+        <v>90</v>
+      </c>
+      <c r="F7" s="5">
+        <v>100</v>
+      </c>
+      <c r="G7" s="5">
+        <v>110</v>
+      </c>
+      <c r="H7" s="5">
+        <v>130</v>
+      </c>
+      <c r="I7" s="5">
+        <v>145</v>
+      </c>
+      <c r="J7" s="5">
+        <v>170</v>
+      </c>
+      <c r="K7" s="5">
+        <v>190</v>
+      </c>
+      <c r="L7" s="5">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" ht="15.9" customHeight="1" spans="1:12">
+      <c r="A8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="7">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7">
+        <v>10</v>
+      </c>
+      <c r="E8" s="7">
+        <v>15</v>
+      </c>
+      <c r="F8" s="7">
+        <v>15</v>
+      </c>
+      <c r="G8" s="7">
+        <v>20</v>
+      </c>
+      <c r="H8" s="7">
+        <v>25</v>
+      </c>
+      <c r="I8" s="7">
+        <v>25</v>
+      </c>
+      <c r="J8" s="7">
+        <v>30</v>
+      </c>
+      <c r="K8" s="7">
+        <v>40</v>
+      </c>
+      <c r="L8" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" ht="15.15" spans="1:12">
+      <c r="A9" s="6"/>
+      <c r="B9" s="4">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>15</v>
+      </c>
+      <c r="D9" s="7">
+        <v>15</v>
+      </c>
+      <c r="E9" s="7">
+        <v>15</v>
+      </c>
+      <c r="F9" s="7">
+        <v>20</v>
+      </c>
+      <c r="G9" s="7">
+        <v>20</v>
+      </c>
+      <c r="H9" s="7">
+        <v>25</v>
+      </c>
+      <c r="I9" s="7">
+        <v>30</v>
+      </c>
+      <c r="J9" s="7">
+        <v>35</v>
+      </c>
+      <c r="K9" s="7">
+        <v>45</v>
+      </c>
+      <c r="L9" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" ht="15.15" spans="1:12">
+      <c r="A10" s="6"/>
+      <c r="B10" s="4">
+        <v>3</v>
+      </c>
+      <c r="C10" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="7">
+        <v>15</v>
+      </c>
+      <c r="E10" s="7">
+        <v>20</v>
+      </c>
+      <c r="F10" s="7">
+        <v>20</v>
+      </c>
+      <c r="G10" s="7">
+        <v>25</v>
+      </c>
+      <c r="H10" s="7">
+        <v>30</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35</v>
+      </c>
+      <c r="J10" s="7">
+        <v>40</v>
+      </c>
+      <c r="K10" s="7">
+        <v>45</v>
+      </c>
+      <c r="L10" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" ht="15.15" spans="1:12">
+      <c r="A11" s="6"/>
+      <c r="B11" s="4">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7">
+        <v>20</v>
+      </c>
+      <c r="F11" s="7">
+        <v>25</v>
+      </c>
+      <c r="G11" s="7">
+        <v>30</v>
+      </c>
+      <c r="H11" s="7">
+        <v>35</v>
+      </c>
+      <c r="I11" s="7">
+        <v>40</v>
+      </c>
+      <c r="J11" s="7">
+        <v>45</v>
+      </c>
+      <c r="K11" s="7">
+        <v>55</v>
+      </c>
+      <c r="L11" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" ht="15.15" spans="1:12">
+      <c r="A12" s="6"/>
+      <c r="B12" s="4">
+        <v>5</v>
+      </c>
+      <c r="C12" s="7">
+        <v>20</v>
+      </c>
+      <c r="D12" s="7">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7">
+        <v>25</v>
+      </c>
+      <c r="F12" s="7">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
+        <v>35</v>
+      </c>
+      <c r="I12" s="7">
+        <v>45</v>
+      </c>
+      <c r="J12" s="7">
+        <v>50</v>
+      </c>
+      <c r="K12" s="7">
+        <v>60</v>
+      </c>
+      <c r="L12" s="7">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" ht="15.15" spans="1:12">
+      <c r="A13" s="6"/>
+      <c r="B13" s="4">
+        <v>6</v>
+      </c>
+      <c r="C13" s="7">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>25</v>
+      </c>
+      <c r="E13" s="7">
+        <v>30</v>
+      </c>
+      <c r="F13" s="7">
+        <v>30</v>
+      </c>
+      <c r="G13" s="7">
+        <v>35</v>
+      </c>
+      <c r="H13" s="7">
+        <v>40</v>
+      </c>
+      <c r="I13" s="7">
+        <v>45</v>
+      </c>
+      <c r="J13" s="7">
+        <v>55</v>
+      </c>
+      <c r="K13" s="7">
+        <v>60</v>
+      </c>
+      <c r="L13" s="7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" ht="15.15" spans="1:12">
+      <c r="A14" s="6"/>
+      <c r="B14" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>10</v>
+      </c>
+      <c r="E14" s="4">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4">
+        <v>30</v>
+      </c>
+      <c r="G14" s="4">
+        <v>40</v>
+      </c>
+      <c r="H14" s="4">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4">
+        <v>60</v>
+      </c>
+      <c r="J14" s="4">
+        <v>70</v>
+      </c>
+      <c r="K14" s="4">
+        <v>80</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="A8:A13"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -5288,14 +7023,63 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="1" ht="15.15" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" ht="15.15" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" ht="15.15" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" ht="15.15" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" ht="15.15" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" ht="15.15" spans="1:2">
+      <c r="A6" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
